--- a/docs/VerifPlans/Simulation/interrupts/CV32E40SX_CLIC.xlsx
+++ b/docs/VerifPlans/Simulation/interrupts/CV32E40SX_CLIC.xlsx
@@ -1,24 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ropeders\Documents\group_vplans\clic\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\openhw\core-v-verif_40s\cv32e40s\docs\VerifPlans\Simulation\interrupts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4636D7E2-2280-40F0-8D1F-683A503D101F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E62560B-BC24-4F97-A15A-1137DFC6130C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="17040" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-38400" yWindow="0" windowWidth="38400" windowHeight="21000" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="High-level Feature" sheetId="1" r:id="rId1"/>
     <sheet name="DONOTDELETE" sheetId="2" r:id="rId2"/>
     <sheet name="References" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0" iterateDelta="1E-4"/>
-  <fileRecoveryPr repairLoad="1"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -59,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1231" uniqueCount="380">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1234" uniqueCount="383">
   <si>
     <t>Requirement Location</t>
   </si>
@@ -2599,12 +2598,26 @@
   <si>
     <t xml:space="preserve"> ---- END ----</t>
   </si>
+  <si>
+    <t>A: uvmt_cv32e40s_tb.dut_wrap.cv32e40s_wrapper_i.core_i.clic_assert_i.gen_clic_assertions.a_mret_pc_intended,
+[clic_assert].a_mret_pc_not_vectored, 
+[clic_assert].a_mret_mode_mpp, 
+[clic_assert].a_mret_mil_mpil, 
+[clic_assert].a_mret_mil_mpil_intended, 
+[clic_assert].a_mret_mie_mpie</t>
+  </si>
+  <si>
+    <t>A: uvmt_cv32e40s_tb.dut_wrap.cv32e40s_wrapper_i.core_i.clic_assert_i.gen_clic_assertions.a_mret_umode_clear_mintthresh</t>
+  </si>
+  <si>
+    <t>A: uvmt_cv32e40s_tb.dut_wrap.cv32e40s_wrapper_i.core_i.clic_assert_i.gen_clic_assertions.a_dret_umode_clear_mintthresh</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -2721,7 +2734,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -2764,11 +2777,14 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2778,14 +2794,14 @@
   <dxfs count="2">
     <dxf>
       <font>
-        <color rgb="FFFF0000"/>
+        <b/>
+        <i/>
+        <color theme="8" tint="-0.24994659260841701"/>
       </font>
     </dxf>
     <dxf>
       <font>
-        <b/>
-        <i/>
-        <color theme="8" tint="-0.24994659260841701"/>
+        <color rgb="FFFF0000"/>
       </font>
     </dxf>
   </dxfs>
@@ -3193,26 +3209,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I152"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A70" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="I74" sqref="I74"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="17" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="17" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="21.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="20.33203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="31.109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="51.33203125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="41.33203125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="21.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="18.44140625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="22.88671875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="54.5546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="20.28515625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="31.140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="51.28515625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="41.28515625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="21.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="18.42578125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="22.85546875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="74.140625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="28.2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="30">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3241,7 +3257,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="55.2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" ht="57">
       <c r="A2" s="10" t="s">
         <v>30</v>
       </c>
@@ -3268,7 +3284,7 @@
       </c>
       <c r="I2" s="5"/>
     </row>
-    <row r="3" spans="1:9" ht="55.2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" ht="57">
       <c r="A3" s="10" t="s">
         <v>30</v>
       </c>
@@ -3295,7 +3311,7 @@
       </c>
       <c r="I3" s="5"/>
     </row>
-    <row r="4" spans="1:9" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" ht="28.5">
       <c r="A4" s="10" t="s">
         <v>36</v>
       </c>
@@ -3322,7 +3338,7 @@
       </c>
       <c r="I4" s="5"/>
     </row>
-    <row r="5" spans="1:9" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" ht="42.75">
       <c r="A5" s="10" t="s">
         <v>39</v>
       </c>
@@ -3349,7 +3365,7 @@
       </c>
       <c r="I5" s="5"/>
     </row>
-    <row r="6" spans="1:9" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" ht="42.75">
       <c r="A6" s="10" t="s">
         <v>36</v>
       </c>
@@ -3376,7 +3392,7 @@
       </c>
       <c r="I6" s="5"/>
     </row>
-    <row r="7" spans="1:9" ht="55.2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" ht="57">
       <c r="A7" s="10" t="s">
         <v>36</v>
       </c>
@@ -3403,7 +3419,7 @@
       </c>
       <c r="I7" s="5"/>
     </row>
-    <row r="8" spans="1:9" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" ht="28.5">
       <c r="A8" s="10" t="s">
         <v>36</v>
       </c>
@@ -3430,7 +3446,7 @@
       </c>
       <c r="I8" s="5"/>
     </row>
-    <row r="9" spans="1:9" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" ht="28.5">
       <c r="A9" s="10" t="s">
         <v>36</v>
       </c>
@@ -3457,7 +3473,7 @@
       </c>
       <c r="I9" s="5"/>
     </row>
-    <row r="10" spans="1:9" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" ht="28.5">
       <c r="A10" s="10" t="s">
         <v>36</v>
       </c>
@@ -3484,7 +3500,7 @@
       </c>
       <c r="I10" s="5"/>
     </row>
-    <row r="11" spans="1:9" ht="69" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" ht="71.25">
       <c r="A11" s="10" t="s">
         <v>58</v>
       </c>
@@ -3511,7 +3527,7 @@
       </c>
       <c r="I11" s="5"/>
     </row>
-    <row r="12" spans="1:9" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" ht="42.75">
       <c r="A12" s="10" t="s">
         <v>36</v>
       </c>
@@ -3538,7 +3554,7 @@
       </c>
       <c r="I12" s="5"/>
     </row>
-    <row r="13" spans="1:9" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" ht="28.5">
       <c r="A13" s="10" t="s">
         <v>58</v>
       </c>
@@ -3565,7 +3581,7 @@
       </c>
       <c r="I13" s="5"/>
     </row>
-    <row r="14" spans="1:9" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" ht="28.5">
       <c r="A14" s="10" t="s">
         <v>58</v>
       </c>
@@ -3592,7 +3608,7 @@
       </c>
       <c r="I14" s="5"/>
     </row>
-    <row r="15" spans="1:9" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" ht="42.75">
       <c r="A15" s="10" t="s">
         <v>58</v>
       </c>
@@ -3619,7 +3635,7 @@
       </c>
       <c r="I15" s="5"/>
     </row>
-    <row r="16" spans="1:9" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" ht="28.5">
       <c r="A16" s="12" t="s">
         <v>58</v>
       </c>
@@ -3646,7 +3662,7 @@
       </c>
       <c r="I16" s="5"/>
     </row>
-    <row r="17" spans="1:9" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" ht="42.75">
       <c r="A17" s="12" t="s">
         <v>58</v>
       </c>
@@ -3673,7 +3689,7 @@
       </c>
       <c r="I17" s="5"/>
     </row>
-    <row r="18" spans="1:9" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" ht="28.5">
       <c r="A18" s="10" t="s">
         <v>58</v>
       </c>
@@ -3700,7 +3716,7 @@
       </c>
       <c r="I18" s="5"/>
     </row>
-    <row r="19" spans="1:9" ht="55.2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" ht="57">
       <c r="A19" s="10" t="s">
         <v>85</v>
       </c>
@@ -3727,7 +3743,7 @@
       </c>
       <c r="I19" s="5"/>
     </row>
-    <row r="20" spans="1:9" ht="55.2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" ht="57">
       <c r="A20" s="10" t="s">
         <v>58</v>
       </c>
@@ -3754,7 +3770,7 @@
       </c>
       <c r="I20" s="5"/>
     </row>
-    <row r="21" spans="1:9" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" ht="28.5">
       <c r="A21" s="10" t="s">
         <v>30</v>
       </c>
@@ -3781,7 +3797,7 @@
       </c>
       <c r="I21" s="5"/>
     </row>
-    <row r="22" spans="1:9" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" ht="28.5">
       <c r="A22" s="10" t="s">
         <v>30</v>
       </c>
@@ -3808,7 +3824,7 @@
       </c>
       <c r="I22" s="5"/>
     </row>
-    <row r="23" spans="1:9" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" ht="28.5">
       <c r="A23" s="10" t="s">
         <v>30</v>
       </c>
@@ -3835,7 +3851,7 @@
       </c>
       <c r="I23" s="5"/>
     </row>
-    <row r="24" spans="1:9" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" ht="28.5">
       <c r="A24" s="10" t="s">
         <v>30</v>
       </c>
@@ -3862,7 +3878,7 @@
       </c>
       <c r="I24" s="5"/>
     </row>
-    <row r="25" spans="1:9" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" ht="28.5">
       <c r="A25" s="10" t="s">
         <v>30</v>
       </c>
@@ -3889,7 +3905,7 @@
       </c>
       <c r="I25" s="5"/>
     </row>
-    <row r="26" spans="1:9" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" ht="28.5">
       <c r="A26" s="10" t="s">
         <v>30</v>
       </c>
@@ -3916,7 +3932,7 @@
       </c>
       <c r="I26" s="5"/>
     </row>
-    <row r="27" spans="1:9" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" ht="28.5">
       <c r="A27" s="10" t="s">
         <v>30</v>
       </c>
@@ -3943,7 +3959,7 @@
       </c>
       <c r="I27" s="5"/>
     </row>
-    <row r="28" spans="1:9" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" ht="28.5">
       <c r="A28" s="10" t="s">
         <v>30</v>
       </c>
@@ -3970,7 +3986,7 @@
       </c>
       <c r="I28" s="5"/>
     </row>
-    <row r="29" spans="1:9" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" ht="28.5">
       <c r="A29" s="10" t="s">
         <v>36</v>
       </c>
@@ -3997,7 +4013,7 @@
       </c>
       <c r="I29" s="5"/>
     </row>
-    <row r="30" spans="1:9" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" ht="28.5">
       <c r="A30" s="10" t="s">
         <v>36</v>
       </c>
@@ -4024,7 +4040,7 @@
       </c>
       <c r="I30" s="5"/>
     </row>
-    <row r="31" spans="1:9" ht="69" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" ht="71.25">
       <c r="A31" s="10" t="s">
         <v>58</v>
       </c>
@@ -4051,7 +4067,7 @@
       </c>
       <c r="I31" s="5"/>
     </row>
-    <row r="32" spans="1:9" ht="220.8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" ht="228">
       <c r="A32" s="10" t="s">
         <v>30</v>
       </c>
@@ -4078,7 +4094,7 @@
       </c>
       <c r="I32" s="5"/>
     </row>
-    <row r="33" spans="1:9" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9" ht="28.5">
       <c r="A33" s="10" t="s">
         <v>36</v>
       </c>
@@ -4105,7 +4121,7 @@
       </c>
       <c r="I33" s="5"/>
     </row>
-    <row r="34" spans="1:9" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:9" ht="42.75">
       <c r="A34" s="10" t="s">
         <v>30</v>
       </c>
@@ -4132,7 +4148,7 @@
       </c>
       <c r="I34" s="5"/>
     </row>
-    <row r="35" spans="1:9" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:9" ht="42.75">
       <c r="A35" s="10" t="s">
         <v>30</v>
       </c>
@@ -4159,7 +4175,7 @@
       </c>
       <c r="I35" s="5"/>
     </row>
-    <row r="36" spans="1:9" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:9" ht="28.5">
       <c r="A36" s="10" t="s">
         <v>39</v>
       </c>
@@ -4186,7 +4202,7 @@
       </c>
       <c r="I36" s="5"/>
     </row>
-    <row r="37" spans="1:9" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:9" ht="28.5">
       <c r="A37" s="10" t="s">
         <v>30</v>
       </c>
@@ -4213,7 +4229,7 @@
       </c>
       <c r="I37" s="5"/>
     </row>
-    <row r="38" spans="1:9" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:9" ht="28.5">
       <c r="A38" s="10" t="s">
         <v>30</v>
       </c>
@@ -4240,7 +4256,7 @@
       </c>
       <c r="I38" s="5"/>
     </row>
-    <row r="39" spans="1:9" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:9" ht="42.75">
       <c r="A39" s="10" t="s">
         <v>30</v>
       </c>
@@ -4267,7 +4283,7 @@
       </c>
       <c r="I39" s="5"/>
     </row>
-    <row r="40" spans="1:9" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:9" ht="42.75">
       <c r="A40" s="10" t="s">
         <v>30</v>
       </c>
@@ -4294,7 +4310,7 @@
       </c>
       <c r="I40" s="5"/>
     </row>
-    <row r="41" spans="1:9" ht="165.6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:9" ht="171">
       <c r="A41" s="10" t="s">
         <v>30</v>
       </c>
@@ -4321,7 +4337,7 @@
       </c>
       <c r="I41" s="5"/>
     </row>
-    <row r="42" spans="1:9" ht="220.8" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:9" ht="213.75">
       <c r="A42" s="10" t="s">
         <v>30</v>
       </c>
@@ -4348,7 +4364,7 @@
       </c>
       <c r="I42" s="5"/>
     </row>
-    <row r="43" spans="1:9" ht="179.4" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:9" ht="185.25">
       <c r="A43" s="10" t="s">
         <v>30</v>
       </c>
@@ -4375,7 +4391,7 @@
       </c>
       <c r="I43" s="5"/>
     </row>
-    <row r="44" spans="1:9" ht="220.8" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:9" ht="213.75">
       <c r="A44" s="10" t="s">
         <v>30</v>
       </c>
@@ -4402,7 +4418,7 @@
       </c>
       <c r="I44" s="5"/>
     </row>
-    <row r="45" spans="1:9" ht="193.2" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:9" ht="199.5">
       <c r="A45" s="10" t="s">
         <v>30</v>
       </c>
@@ -4429,7 +4445,7 @@
       </c>
       <c r="I45" s="5"/>
     </row>
-    <row r="46" spans="1:9" ht="151.80000000000001" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:9" ht="142.5">
       <c r="A46" s="10" t="s">
         <v>30</v>
       </c>
@@ -4456,7 +4472,7 @@
       </c>
       <c r="I46" s="5"/>
     </row>
-    <row r="47" spans="1:9" ht="96.6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:9" ht="99.75">
       <c r="A47" s="10" t="s">
         <v>367</v>
       </c>
@@ -4483,7 +4499,7 @@
       </c>
       <c r="I47" s="5"/>
     </row>
-    <row r="48" spans="1:9" ht="225" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:9" ht="225" customHeight="1">
       <c r="A48" s="10" t="s">
         <v>36</v>
       </c>
@@ -4510,7 +4526,7 @@
       </c>
       <c r="I48" s="5"/>
     </row>
-    <row r="49" spans="1:9" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:9" ht="28.5">
       <c r="A49" s="10" t="s">
         <v>30</v>
       </c>
@@ -4537,7 +4553,7 @@
       </c>
       <c r="I49" s="5"/>
     </row>
-    <row r="50" spans="1:9" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:9" ht="42.75">
       <c r="A50" s="10" t="s">
         <v>30</v>
       </c>
@@ -4564,7 +4580,7 @@
       </c>
       <c r="I50" s="5"/>
     </row>
-    <row r="51" spans="1:9" ht="82.8" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:9" ht="57">
       <c r="A51" s="10" t="s">
         <v>30</v>
       </c>
@@ -4591,7 +4607,7 @@
       </c>
       <c r="I51" s="5"/>
     </row>
-    <row r="52" spans="1:9" ht="55.2" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:9" ht="57">
       <c r="A52" s="10" t="s">
         <v>58</v>
       </c>
@@ -4618,7 +4634,7 @@
       </c>
       <c r="I52" s="5"/>
     </row>
-    <row r="53" spans="1:9" ht="55.2" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:9" ht="57">
       <c r="A53" s="10" t="s">
         <v>30</v>
       </c>
@@ -4645,7 +4661,7 @@
       </c>
       <c r="I53" s="5"/>
     </row>
-    <row r="54" spans="1:9" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:9" ht="28.5">
       <c r="A54" s="10" t="s">
         <v>30</v>
       </c>
@@ -4672,7 +4688,7 @@
       </c>
       <c r="I54" s="5"/>
     </row>
-    <row r="55" spans="1:9" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:9" ht="42.75">
       <c r="A55" s="10" t="s">
         <v>36</v>
       </c>
@@ -4699,7 +4715,7 @@
       </c>
       <c r="I55" s="5"/>
     </row>
-    <row r="56" spans="1:9" ht="69" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:9" ht="71.25">
       <c r="A56" s="10" t="s">
         <v>30</v>
       </c>
@@ -4726,7 +4742,7 @@
       </c>
       <c r="I56" s="5"/>
     </row>
-    <row r="57" spans="1:9" ht="234.6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:9" ht="228">
       <c r="A57" s="10" t="s">
         <v>30</v>
       </c>
@@ -4753,7 +4769,7 @@
       </c>
       <c r="I57" s="5"/>
     </row>
-    <row r="58" spans="1:9" ht="138" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:9" ht="128.25">
       <c r="A58" s="10" t="s">
         <v>30</v>
       </c>
@@ -4780,7 +4796,7 @@
       </c>
       <c r="I58" s="5"/>
     </row>
-    <row r="59" spans="1:9" ht="262.2" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:9" ht="256.5">
       <c r="A59" s="10" t="s">
         <v>30</v>
       </c>
@@ -4807,7 +4823,7 @@
       </c>
       <c r="I59" s="5"/>
     </row>
-    <row r="60" spans="1:9" ht="248.4" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:9" ht="242.25">
       <c r="A60" s="10" t="s">
         <v>30</v>
       </c>
@@ -4834,7 +4850,7 @@
       </c>
       <c r="I60" s="5"/>
     </row>
-    <row r="61" spans="1:9" ht="262.2" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:9" ht="270.75">
       <c r="A61" s="10" t="s">
         <v>30</v>
       </c>
@@ -4861,7 +4877,7 @@
       </c>
       <c r="I61" s="5"/>
     </row>
-    <row r="62" spans="1:9" ht="248.4" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:9" ht="256.5">
       <c r="A62" s="10" t="s">
         <v>30</v>
       </c>
@@ -4888,7 +4904,7 @@
       </c>
       <c r="I62" s="5"/>
     </row>
-    <row r="63" spans="1:9" ht="110.4" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:9" ht="114">
       <c r="A63" s="10" t="s">
         <v>30</v>
       </c>
@@ -4915,7 +4931,7 @@
       </c>
       <c r="I63" s="5"/>
     </row>
-    <row r="64" spans="1:9" ht="55.2" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:9" ht="57.75">
       <c r="A64" s="10" t="s">
         <v>30</v>
       </c>
@@ -4942,7 +4958,7 @@
       </c>
       <c r="I64" s="5"/>
     </row>
-    <row r="65" spans="1:9" ht="55.2" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:9" ht="57.75">
       <c r="A65" s="10" t="s">
         <v>30</v>
       </c>
@@ -4969,7 +4985,7 @@
       </c>
       <c r="I65" s="5"/>
     </row>
-    <row r="66" spans="1:9" ht="124.2" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:9" ht="129">
       <c r="A66" s="10" t="s">
         <v>30</v>
       </c>
@@ -4996,7 +5012,7 @@
       </c>
       <c r="I66" s="5"/>
     </row>
-    <row r="67" spans="1:9" ht="124.2" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:9" ht="128.25">
       <c r="A67" s="10" t="s">
         <v>30</v>
       </c>
@@ -5023,7 +5039,7 @@
       </c>
       <c r="I67" s="5"/>
     </row>
-    <row r="68" spans="1:9" ht="110.4" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:9" ht="114">
       <c r="A68" s="10" t="s">
         <v>30</v>
       </c>
@@ -5050,7 +5066,7 @@
       </c>
       <c r="I68" s="5"/>
     </row>
-    <row r="69" spans="1:9" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:9" ht="42.75">
       <c r="A69" s="10" t="s">
         <v>30</v>
       </c>
@@ -5077,7 +5093,7 @@
       </c>
       <c r="I69" s="5"/>
     </row>
-    <row r="70" spans="1:9" ht="69" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:9" ht="71.25">
       <c r="A70" s="10" t="s">
         <v>36</v>
       </c>
@@ -5104,7 +5120,7 @@
       </c>
       <c r="I70" s="5"/>
     </row>
-    <row r="71" spans="1:9" ht="124.2" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:9" ht="128.25">
       <c r="A71" s="10" t="s">
         <v>30</v>
       </c>
@@ -5129,9 +5145,9 @@
       <c r="H71" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="I71" s="5"/>
-    </row>
-    <row r="72" spans="1:9" ht="124.2" x14ac:dyDescent="0.3">
+      <c r="I71" s="20"/>
+    </row>
+    <row r="72" spans="1:9" ht="128.25">
       <c r="A72" s="10" t="s">
         <v>30</v>
       </c>
@@ -5156,9 +5172,11 @@
       <c r="H72" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="I72" s="5"/>
-    </row>
-    <row r="73" spans="1:9" ht="55.2" x14ac:dyDescent="0.3">
+      <c r="I72" s="20" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" ht="57">
       <c r="A73" s="10" t="s">
         <v>369</v>
       </c>
@@ -5183,9 +5201,11 @@
       <c r="H73" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="I73" s="5"/>
-    </row>
-    <row r="74" spans="1:9" ht="69" x14ac:dyDescent="0.3">
+      <c r="I73" s="5" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" ht="71.25">
       <c r="A74" s="10" t="s">
         <v>369</v>
       </c>
@@ -5210,9 +5230,11 @@
       <c r="H74" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="I74" s="5"/>
-    </row>
-    <row r="75" spans="1:9" ht="124.2" x14ac:dyDescent="0.3">
+      <c r="I74" s="5" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" ht="114">
       <c r="A75" s="10" t="s">
         <v>30</v>
       </c>
@@ -5239,7 +5261,7 @@
       </c>
       <c r="I75" s="5"/>
     </row>
-    <row r="76" spans="1:9" ht="124.2" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:9" ht="128.25">
       <c r="A76" s="10" t="s">
         <v>30</v>
       </c>
@@ -5266,7 +5288,7 @@
       </c>
       <c r="I76" s="5"/>
     </row>
-    <row r="77" spans="1:9" ht="110.4" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:9" ht="114">
       <c r="A77" s="10" t="s">
         <v>30</v>
       </c>
@@ -5293,7 +5315,7 @@
       </c>
       <c r="I77" s="5"/>
     </row>
-    <row r="78" spans="1:9" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:9" ht="28.5">
       <c r="A78" s="10" t="s">
         <v>30</v>
       </c>
@@ -5320,7 +5342,7 @@
       </c>
       <c r="I78" s="5"/>
     </row>
-    <row r="79" spans="1:9" ht="42" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:9" ht="29.25">
       <c r="A79" s="10" t="s">
         <v>36</v>
       </c>
@@ -5347,7 +5369,7 @@
       </c>
       <c r="I79" s="5"/>
     </row>
-    <row r="80" spans="1:9" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:9" ht="28.5">
       <c r="A80" s="10" t="s">
         <v>36</v>
       </c>
@@ -5374,7 +5396,7 @@
       </c>
       <c r="I80" s="5"/>
     </row>
-    <row r="81" spans="1:9" ht="28.2" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:9" ht="29.25">
       <c r="A81" s="10" t="s">
         <v>36</v>
       </c>
@@ -5401,7 +5423,7 @@
       </c>
       <c r="I81" s="5"/>
     </row>
-    <row r="82" spans="1:9" ht="55.2" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:9" ht="42.75">
       <c r="A82" s="10" t="s">
         <v>30</v>
       </c>
@@ -5428,7 +5450,7 @@
       </c>
       <c r="I82" s="5"/>
     </row>
-    <row r="83" spans="1:9" ht="55.2" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:9" ht="57.75">
       <c r="A83" s="10" t="s">
         <v>30</v>
       </c>
@@ -5455,7 +5477,7 @@
       </c>
       <c r="I83" s="5"/>
     </row>
-    <row r="84" spans="1:9" ht="69" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:9" ht="71.25">
       <c r="A84" s="10" t="s">
         <v>36</v>
       </c>
@@ -5482,7 +5504,7 @@
       </c>
       <c r="I84" s="5"/>
     </row>
-    <row r="85" spans="1:9" ht="82.8" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:9" ht="71.25">
       <c r="A85" s="10" t="s">
         <v>36</v>
       </c>
@@ -5509,7 +5531,7 @@
       </c>
       <c r="I85" s="5"/>
     </row>
-    <row r="86" spans="1:9" ht="207" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:9" ht="213.75">
       <c r="A86" s="10" t="s">
         <v>36</v>
       </c>
@@ -5536,7 +5558,7 @@
       </c>
       <c r="I86" s="5"/>
     </row>
-    <row r="87" spans="1:9" ht="220.8" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:9" ht="228">
       <c r="A87" s="10" t="s">
         <v>36</v>
       </c>
@@ -5563,7 +5585,7 @@
       </c>
       <c r="I87" s="5"/>
     </row>
-    <row r="88" spans="1:9" ht="179.4" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:9" ht="185.25">
       <c r="A88" s="10" t="s">
         <v>36</v>
       </c>
@@ -5590,7 +5612,7 @@
       </c>
       <c r="I88" s="5"/>
     </row>
-    <row r="89" spans="1:9" ht="124.2" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:9" ht="128.25">
       <c r="A89" s="10" t="s">
         <v>36</v>
       </c>
@@ -5617,7 +5639,7 @@
       </c>
       <c r="I89" s="5"/>
     </row>
-    <row r="90" spans="1:9" ht="151.80000000000001" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:9" ht="156.75">
       <c r="A90" s="10" t="s">
         <v>36</v>
       </c>
@@ -5644,7 +5666,7 @@
       </c>
       <c r="I90" s="5"/>
     </row>
-    <row r="91" spans="1:9" ht="165.6" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:9" ht="171">
       <c r="A91" s="10" t="s">
         <v>36</v>
       </c>
@@ -5671,7 +5693,7 @@
       </c>
       <c r="I91" s="5"/>
     </row>
-    <row r="92" spans="1:9" ht="138" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:9" ht="142.5">
       <c r="A92" s="10" t="s">
         <v>36</v>
       </c>
@@ -5698,7 +5720,7 @@
       </c>
       <c r="I92" s="5"/>
     </row>
-    <row r="93" spans="1:9" ht="220.8" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:9" ht="213.75">
       <c r="A93" s="10" t="s">
         <v>36</v>
       </c>
@@ -5725,7 +5747,7 @@
       </c>
       <c r="I93" s="5"/>
     </row>
-    <row r="94" spans="1:9" ht="220.8" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:9" ht="228">
       <c r="A94" s="10" t="s">
         <v>36</v>
       </c>
@@ -5752,7 +5774,7 @@
       </c>
       <c r="I94" s="5"/>
     </row>
-    <row r="95" spans="1:9" ht="151.80000000000001" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:9" ht="156.75">
       <c r="A95" s="10" t="s">
         <v>36</v>
       </c>
@@ -5779,7 +5801,7 @@
       </c>
       <c r="I95" s="5"/>
     </row>
-    <row r="96" spans="1:9" ht="138" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:9" ht="142.5">
       <c r="A96" s="10" t="s">
         <v>36</v>
       </c>
@@ -5806,7 +5828,7 @@
       </c>
       <c r="I96" s="5"/>
     </row>
-    <row r="97" spans="1:9" ht="151.80000000000001" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:9" ht="156.75">
       <c r="A97" s="10" t="s">
         <v>36</v>
       </c>
@@ -5833,7 +5855,7 @@
       </c>
       <c r="I97" s="5"/>
     </row>
-    <row r="98" spans="1:9" ht="207" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:9" ht="213.75">
       <c r="A98" s="10" t="s">
         <v>36</v>
       </c>
@@ -5860,7 +5882,7 @@
       </c>
       <c r="I98" s="5"/>
     </row>
-    <row r="99" spans="1:9" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:9" ht="29.25">
       <c r="A99" s="10" t="s">
         <v>39</v>
       </c>
@@ -5887,7 +5909,7 @@
       </c>
       <c r="I99" s="5"/>
     </row>
-    <row r="100" spans="1:9" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:9" ht="29.25">
       <c r="A100" s="10" t="s">
         <v>39</v>
       </c>
@@ -5914,7 +5936,7 @@
       </c>
       <c r="I100" s="5"/>
     </row>
-    <row r="101" spans="1:9" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:9" ht="29.25">
       <c r="A101" s="10" t="s">
         <v>39</v>
       </c>
@@ -5941,7 +5963,7 @@
       </c>
       <c r="I101" s="5"/>
     </row>
-    <row r="102" spans="1:9" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:9" ht="29.25">
       <c r="A102" s="10" t="s">
         <v>39</v>
       </c>
@@ -5968,7 +5990,7 @@
       </c>
       <c r="I102" s="5"/>
     </row>
-    <row r="103" spans="1:9" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:9" ht="29.25">
       <c r="A103" s="10" t="s">
         <v>39</v>
       </c>
@@ -5995,7 +6017,7 @@
       </c>
       <c r="I103" s="5"/>
     </row>
-    <row r="104" spans="1:9" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:9" ht="29.25">
       <c r="A104" s="10" t="s">
         <v>39</v>
       </c>
@@ -6022,7 +6044,7 @@
       </c>
       <c r="I104" s="5"/>
     </row>
-    <row r="105" spans="1:9" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:9" ht="29.25">
       <c r="A105" s="10" t="s">
         <v>39</v>
       </c>
@@ -6049,7 +6071,7 @@
       </c>
       <c r="I105" s="5"/>
     </row>
-    <row r="106" spans="1:9" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:9" ht="29.25">
       <c r="A106" s="10" t="s">
         <v>39</v>
       </c>
@@ -6076,7 +6098,7 @@
       </c>
       <c r="I106" s="5"/>
     </row>
-    <row r="107" spans="1:9" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:9" ht="29.25">
       <c r="A107" s="10" t="s">
         <v>39</v>
       </c>
@@ -6103,7 +6125,7 @@
       </c>
       <c r="I107" s="5"/>
     </row>
-    <row r="108" spans="1:9" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:9" ht="29.25">
       <c r="A108" s="10" t="s">
         <v>39</v>
       </c>
@@ -6130,7 +6152,7 @@
       </c>
       <c r="I108" s="5"/>
     </row>
-    <row r="109" spans="1:9" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:9" ht="29.25">
       <c r="A109" s="10" t="s">
         <v>39</v>
       </c>
@@ -6157,7 +6179,7 @@
       </c>
       <c r="I109" s="5"/>
     </row>
-    <row r="110" spans="1:9" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:9" ht="29.25">
       <c r="A110" s="10" t="s">
         <v>39</v>
       </c>
@@ -6184,7 +6206,7 @@
       </c>
       <c r="I110" s="5"/>
     </row>
-    <row r="111" spans="1:9" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:9" ht="29.25">
       <c r="A111" s="10" t="s">
         <v>39</v>
       </c>
@@ -6211,7 +6233,7 @@
       </c>
       <c r="I111" s="5"/>
     </row>
-    <row r="112" spans="1:9" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:9" ht="29.25">
       <c r="A112" s="10" t="s">
         <v>39</v>
       </c>
@@ -6238,7 +6260,7 @@
       </c>
       <c r="I112" s="5"/>
     </row>
-    <row r="113" spans="1:9" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:9" ht="29.25">
       <c r="A113" s="10" t="s">
         <v>39</v>
       </c>
@@ -6265,7 +6287,7 @@
       </c>
       <c r="I113" s="5"/>
     </row>
-    <row r="114" spans="1:9" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:9" ht="29.25">
       <c r="A114" s="10" t="s">
         <v>39</v>
       </c>
@@ -6292,7 +6314,7 @@
       </c>
       <c r="I114" s="5"/>
     </row>
-    <row r="115" spans="1:9" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:9" ht="29.25">
       <c r="A115" s="10" t="s">
         <v>39</v>
       </c>
@@ -6319,7 +6341,7 @@
       </c>
       <c r="I115" s="5"/>
     </row>
-    <row r="116" spans="1:9" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:9" ht="29.25">
       <c r="A116" s="10" t="s">
         <v>39</v>
       </c>
@@ -6346,7 +6368,7 @@
       </c>
       <c r="I116" s="5"/>
     </row>
-    <row r="117" spans="1:9" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:9" ht="29.25">
       <c r="A117" s="10" t="s">
         <v>39</v>
       </c>
@@ -6373,7 +6395,7 @@
       </c>
       <c r="I117" s="5"/>
     </row>
-    <row r="118" spans="1:9" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:9" ht="29.25">
       <c r="A118" s="10" t="s">
         <v>39</v>
       </c>
@@ -6400,7 +6422,7 @@
       </c>
       <c r="I118" s="5"/>
     </row>
-    <row r="119" spans="1:9" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:9" ht="29.25">
       <c r="A119" s="10" t="s">
         <v>39</v>
       </c>
@@ -6427,7 +6449,7 @@
       </c>
       <c r="I119" s="5"/>
     </row>
-    <row r="120" spans="1:9" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:9" ht="29.25">
       <c r="A120" s="10" t="s">
         <v>39</v>
       </c>
@@ -6454,7 +6476,7 @@
       </c>
       <c r="I120" s="5"/>
     </row>
-    <row r="121" spans="1:9" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:9" ht="29.25">
       <c r="A121" s="10" t="s">
         <v>39</v>
       </c>
@@ -6481,7 +6503,7 @@
       </c>
       <c r="I121" s="5"/>
     </row>
-    <row r="122" spans="1:9" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:9" ht="29.25">
       <c r="A122" s="10" t="s">
         <v>39</v>
       </c>
@@ -6508,7 +6530,7 @@
       </c>
       <c r="I122" s="5"/>
     </row>
-    <row r="123" spans="1:9" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:9" ht="29.25">
       <c r="A123" s="10" t="s">
         <v>39</v>
       </c>
@@ -6535,7 +6557,7 @@
       </c>
       <c r="I123" s="5"/>
     </row>
-    <row r="124" spans="1:9" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:9" ht="29.25">
       <c r="A124" s="10" t="s">
         <v>39</v>
       </c>
@@ -6562,7 +6584,7 @@
       </c>
       <c r="I124" s="5"/>
     </row>
-    <row r="125" spans="1:9" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:9" ht="29.25">
       <c r="A125" s="10" t="s">
         <v>39</v>
       </c>
@@ -6589,7 +6611,7 @@
       </c>
       <c r="I125" s="5"/>
     </row>
-    <row r="126" spans="1:9" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:9" ht="29.25">
       <c r="A126" s="10" t="s">
         <v>39</v>
       </c>
@@ -6616,7 +6638,7 @@
       </c>
       <c r="I126" s="5"/>
     </row>
-    <row r="127" spans="1:9" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:9" ht="29.25">
       <c r="A127" s="10" t="s">
         <v>39</v>
       </c>
@@ -6643,7 +6665,7 @@
       </c>
       <c r="I127" s="5"/>
     </row>
-    <row r="128" spans="1:9" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:9" ht="29.25">
       <c r="A128" s="10" t="s">
         <v>39</v>
       </c>
@@ -6670,7 +6692,7 @@
       </c>
       <c r="I128" s="5"/>
     </row>
-    <row r="129" spans="1:9" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:9" ht="29.25">
       <c r="A129" s="10" t="s">
         <v>39</v>
       </c>
@@ -6697,7 +6719,7 @@
       </c>
       <c r="I129" s="5"/>
     </row>
-    <row r="130" spans="1:9" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:9" ht="29.25">
       <c r="A130" s="10" t="s">
         <v>39</v>
       </c>
@@ -6724,7 +6746,7 @@
       </c>
       <c r="I130" s="5"/>
     </row>
-    <row r="131" spans="1:9" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:9" ht="29.25">
       <c r="A131" s="10" t="s">
         <v>39</v>
       </c>
@@ -6751,7 +6773,7 @@
       </c>
       <c r="I131" s="5"/>
     </row>
-    <row r="132" spans="1:9" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:9" ht="29.25">
       <c r="A132" s="10" t="s">
         <v>39</v>
       </c>
@@ -6778,7 +6800,7 @@
       </c>
       <c r="I132" s="5"/>
     </row>
-    <row r="133" spans="1:9" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:9" ht="29.25">
       <c r="A133" s="10" t="s">
         <v>39</v>
       </c>
@@ -6805,7 +6827,7 @@
       </c>
       <c r="I133" s="5"/>
     </row>
-    <row r="134" spans="1:9" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:9" ht="29.25">
       <c r="A134" s="10" t="s">
         <v>39</v>
       </c>
@@ -6832,7 +6854,7 @@
       </c>
       <c r="I134" s="5"/>
     </row>
-    <row r="135" spans="1:9" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:9" ht="29.25">
       <c r="A135" s="10" t="s">
         <v>39</v>
       </c>
@@ -6859,7 +6881,7 @@
       </c>
       <c r="I135" s="5"/>
     </row>
-    <row r="136" spans="1:9" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:9" ht="29.25">
       <c r="A136" s="10" t="s">
         <v>39</v>
       </c>
@@ -6886,7 +6908,7 @@
       </c>
       <c r="I136" s="5"/>
     </row>
-    <row r="137" spans="1:9" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:9" ht="43.5">
       <c r="A137" s="10" t="s">
         <v>39</v>
       </c>
@@ -6913,7 +6935,7 @@
       </c>
       <c r="I137" s="5"/>
     </row>
-    <row r="138" spans="1:9" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:9" ht="43.5">
       <c r="A138" s="10" t="s">
         <v>39</v>
       </c>
@@ -6940,7 +6962,7 @@
       </c>
       <c r="I138" s="5"/>
     </row>
-    <row r="139" spans="1:9" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:9" ht="43.5">
       <c r="A139" s="10" t="s">
         <v>39</v>
       </c>
@@ -6967,7 +6989,7 @@
       </c>
       <c r="I139" s="5"/>
     </row>
-    <row r="140" spans="1:9" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:9" ht="43.5">
       <c r="A140" s="10" t="s">
         <v>39</v>
       </c>
@@ -6994,7 +7016,7 @@
       </c>
       <c r="I140" s="5"/>
     </row>
-    <row r="141" spans="1:9" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:9" ht="29.25">
       <c r="A141" s="10" t="s">
         <v>39</v>
       </c>
@@ -7021,7 +7043,7 @@
       </c>
       <c r="I141" s="5"/>
     </row>
-    <row r="142" spans="1:9" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:9" ht="28.5">
       <c r="A142" s="10" t="s">
         <v>39</v>
       </c>
@@ -7048,7 +7070,7 @@
       </c>
       <c r="I142" s="5"/>
     </row>
-    <row r="143" spans="1:9" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:9" ht="44.25">
       <c r="A143" s="10" t="s">
         <v>39</v>
       </c>
@@ -7075,7 +7097,7 @@
       </c>
       <c r="I143" s="5"/>
     </row>
-    <row r="144" spans="1:9" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:9" ht="44.25">
       <c r="A144" s="10" t="s">
         <v>39</v>
       </c>
@@ -7102,7 +7124,7 @@
       </c>
       <c r="I144" s="5"/>
     </row>
-    <row r="145" spans="1:9" ht="55.2" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:9" ht="58.5">
       <c r="A145" s="10" t="s">
         <v>39</v>
       </c>
@@ -7129,7 +7151,7 @@
       </c>
       <c r="I145" s="5"/>
     </row>
-    <row r="146" spans="1:9" ht="55.2" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:9" ht="58.5">
       <c r="A146" s="10" t="s">
         <v>39</v>
       </c>
@@ -7156,7 +7178,7 @@
       </c>
       <c r="I146" s="5"/>
     </row>
-    <row r="147" spans="1:9" ht="55.2" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:9" ht="58.5">
       <c r="A147" s="10" t="s">
         <v>39</v>
       </c>
@@ -7183,7 +7205,7 @@
       </c>
       <c r="I147" s="5"/>
     </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:9">
       <c r="A148" s="5"/>
       <c r="B148" s="6"/>
       <c r="C148" s="6"/>
@@ -7194,7 +7216,7 @@
       <c r="H148" s="5"/>
       <c r="I148" s="5"/>
     </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:9">
       <c r="A149" s="5"/>
       <c r="B149" s="6"/>
       <c r="C149" s="6"/>
@@ -7205,7 +7227,7 @@
       <c r="H149" s="5"/>
       <c r="I149" s="5"/>
     </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:9">
       <c r="A150" s="5"/>
       <c r="B150" s="6"/>
       <c r="C150" s="6"/>
@@ -7216,7 +7238,7 @@
       <c r="H150" s="5"/>
       <c r="I150" s="5"/>
     </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:9">
       <c r="A151" s="5"/>
       <c r="B151" s="6"/>
       <c r="C151" s="6"/>
@@ -7227,31 +7249,31 @@
       <c r="H151" s="5"/>
       <c r="I151" s="5"/>
     </row>
-    <row r="152" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A152" s="18" t="s">
+    <row r="152" spans="1:9" s="7" customFormat="1">
+      <c r="A152" s="19" t="s">
         <v>379</v>
       </c>
-      <c r="B152" s="18"/>
-      <c r="C152" s="18"/>
-      <c r="D152" s="18"/>
-      <c r="E152" s="18"/>
-      <c r="F152" s="18"/>
-      <c r="G152" s="18"/>
-      <c r="H152" s="18"/>
-      <c r="I152" s="18"/>
+      <c r="B152" s="19"/>
+      <c r="C152" s="19"/>
+      <c r="D152" s="19"/>
+      <c r="E152" s="19"/>
+      <c r="F152" s="19"/>
+      <c r="G152" s="19"/>
+      <c r="H152" s="19"/>
+      <c r="I152" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A152:I152"/>
   </mergeCells>
-  <conditionalFormatting sqref="E77:E83">
-    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="silabs">
-      <formula>NOT(ISERROR(SEARCH("silabs",E77)))</formula>
+  <conditionalFormatting sqref="A2:H147">
+    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="TODO">
+      <formula>NOT(ISERROR(SEARCH("TODO",A2)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:H147">
-    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="TODO">
-      <formula>NOT(ISERROR(SEARCH("TODO",A2)))</formula>
+  <conditionalFormatting sqref="E77:E83">
+    <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="silabs">
+      <formula>NOT(ISERROR(SEARCH("silabs",E77)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -7259,7 +7281,7 @@
   <legacyDrawing r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" disablePrompts="1" count="3">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{60D2BEE7-449C-4D98-B095-39D70AC3291D}">
           <x14:formula1>
             <xm:f>DONOTDELETE!$A$3:$A$27</xm:f>
@@ -7292,14 +7314,14 @@
       <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="17.33203125" customWidth="1"/>
-    <col min="3" max="3" width="26.109375" customWidth="1"/>
-    <col min="5" max="5" width="19.33203125" customWidth="1"/>
+    <col min="1" max="1" width="17.28515625" customWidth="1"/>
+    <col min="3" max="3" width="26.140625" customWidth="1"/>
+    <col min="5" max="5" width="19.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5">
       <c r="A2" s="8" t="s">
         <v>5</v>
       </c>
@@ -7312,7 +7334,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -7323,7 +7345,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -7334,7 +7356,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -7345,7 +7367,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
         <v>18</v>
       </c>
@@ -7356,7 +7378,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
         <v>21</v>
       </c>
@@ -7367,7 +7389,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
         <v>24</v>
       </c>
@@ -7375,7 +7397,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5">
       <c r="A9" t="s">
         <v>23</v>
       </c>
@@ -7383,7 +7405,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5">
       <c r="C10" t="s">
         <v>23</v>
       </c>
@@ -7402,30 +7424,30 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="2.88671875" customWidth="1"/>
-    <col min="2" max="2" width="25.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="90.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="106.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="48.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.85546875" customWidth="1"/>
+    <col min="2" max="2" width="25.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="90.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="106.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="48.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B2" s="19" t="s">
+    <row r="2" spans="2:5">
+      <c r="B2" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="C2" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="D2" s="19" t="s">
+      <c r="D2" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="E2" s="19" t="s">
+      <c r="E2" s="18" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:5">
       <c r="B3" s="16" t="s">
         <v>30</v>
       </c>
@@ -7439,7 +7461,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:5">
       <c r="B4" s="16" t="s">
         <v>369</v>
       </c>
@@ -7451,7 +7473,7 @@
       </c>
       <c r="E4" s="16"/>
     </row>
-    <row r="5" spans="2:5" ht="55.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:5" ht="57.75">
       <c r="B5" s="16" t="s">
         <v>39</v>
       </c>
@@ -7463,7 +7485,7 @@
       </c>
       <c r="E5" s="16"/>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:5">
       <c r="B6" s="16" t="s">
         <v>58</v>
       </c>
@@ -7471,7 +7493,7 @@
       <c r="D6" s="16"/>
       <c r="E6" s="16"/>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:5">
       <c r="B7" s="16" t="s">
         <v>356</v>
       </c>
@@ -7485,7 +7507,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:5">
       <c r="B8" s="16" t="s">
         <v>360</v>
       </c>
@@ -7499,7 +7521,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:5">
       <c r="B9" s="16" t="s">
         <v>36</v>
       </c>
@@ -7511,7 +7533,7 @@
       </c>
       <c r="E9" s="16"/>
     </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:5">
       <c r="B10" s="16" t="s">
         <v>367</v>
       </c>

--- a/docs/VerifPlans/Simulation/interrupts/CV32E40SX_CLIC.xlsx
+++ b/docs/VerifPlans/Simulation/interrupts/CV32E40SX_CLIC.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\openhw\core-v-verif_40s\cv32e40s\docs\VerifPlans\Simulation\interrupts\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hefegran/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E62560B-BC24-4F97-A15A-1137DFC6130C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{412146A6-BA24-9F4B-A013-D3E1CD3E4776}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38400" yWindow="0" windowWidth="38400" windowHeight="21000" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-51200" yWindow="-13020" windowWidth="51200" windowHeight="28800" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="High-level Feature" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="References" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -58,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1234" uniqueCount="383">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1377" uniqueCount="459">
   <si>
     <t>Requirement Location</t>
   </si>
@@ -220,9 +221,6 @@
   </si>
   <si>
     <t>Assert that SMCLIC_ID_WIDTH is inside { 1 .. 10 }</t>
-  </si>
-  <si>
-    <t>Interrupt levels inside { 0, 2 .. 255 }</t>
   </si>
   <si>
     <t>Correct functionality of interrupts of all valid levels</t>
@@ -2610,14 +2608,304 @@
     <t>A: uvmt_cv32e40s_tb.dut_wrap.cv32e40s_wrapper_i.core_i.clic_assert_i.gen_clic_assertions.a_mret_umode_clear_mintthresh</t>
   </si>
   <si>
-    <t>A: uvmt_cv32e40s_tb.dut_wrap.cv32e40s_wrapper_i.core_i.clic_assert_i.gen_clic_assertions.a_dret_umode_clear_mintthresh</t>
+    <t>a_clic_mode_only</t>
+  </si>
+  <si>
+    <t>a_nmi_to_mtvec_offset</t>
+  </si>
+  <si>
+    <t>a_clic_valid_setting</t>
+  </si>
+  <si>
+    <t>a_mtvec_reset_value_correct</t>
+  </si>
+  <si>
+    <t>a_mstatus_mie_reset_to_zero</t>
+  </si>
+  <si>
+    <t>a_mintstatus_mil_reset_to_zero</t>
+  </si>
+  <si>
+    <t>a_tieoff_zero_irq_i</t>
+  </si>
+  <si>
+    <t>a_irq_ack_is_always_single_cycle_pulse</t>
+  </si>
+  <si>
+    <t>a_irq_ack_valid</t>
+  </si>
+  <si>
+    <t>a_irq_ack_valid
+a_no_irq_no_ack</t>
+  </si>
+  <si>
+    <t>a_every_ack_followed_by_rvfi_intr</t>
+  </si>
+  <si>
+    <t>Outdated req, CSR removed</t>
+  </si>
+  <si>
+    <t>clic :: w_mcause_mpp_r_mstatus_mpp
+clic :: w_mstatus_mpp_r_mcause_mpp</t>
+  </si>
+  <si>
+    <t>clic :: w_mcause_mpie_r_mstatus_mpie
+clic :: w_mstatus_mpie_r_mcause_mpie</t>
+  </si>
+  <si>
+    <t>a_mie_unused_hardcode_zero</t>
+  </si>
+  <si>
+    <t>w_mie_notrap_r_zero</t>
+  </si>
+  <si>
+    <t>a_mip_unused_hardcode_zero</t>
+  </si>
+  <si>
+    <t>w_mip_notrap_r_zero</t>
+  </si>
+  <si>
+    <t>a_mtvec_aligned_to_128_bytes</t>
+  </si>
+  <si>
+    <t>a_mtvec_mode_always_clic</t>
+  </si>
+  <si>
+    <t>a_mtvt_alignment_correct</t>
+  </si>
+  <si>
+    <t>clic :: w_mtvt_rd_alignment</t>
+  </si>
+  <si>
+    <t>a_mepc_set_correct_after_irq</t>
+  </si>
+  <si>
+    <t>a_mcause_interupt_always_set_on_taken_irq</t>
+  </si>
+  <si>
+    <t>a_mcause_exccode_always_set_correctly_on_taken_irq</t>
+  </si>
+  <si>
+    <t>a_mcause_mpil_reflects_previous_interrupt_lvl</t>
+  </si>
+  <si>
+    <t>a_mcause_mpp_reflects_previous_privilege_mode</t>
+  </si>
+  <si>
+    <t>a_mcause_mpie_reflects_previous_interrupt_enable</t>
+  </si>
+  <si>
+    <t>a_mnxti_case_1_irq_req_unchanged</t>
+  </si>
+  <si>
+    <t>a_mnxti_case_2_replaced_by_higher_level_non_shv_irq</t>
+  </si>
+  <si>
+    <t>N/A - cannot take assertions in U-mode</t>
+  </si>
+  <si>
+    <t>a_mnxti_case_4_replaced_by_lower_level_irq</t>
+  </si>
+  <si>
+    <t>a_mnxti_case_5_1_no_current_irq
+a_mnxti_case_5_2_lvl_nonshv_pending</t>
+  </si>
+  <si>
+    <t>a_mnxti_case_6_higher_level_irq_superceed</t>
+  </si>
+  <si>
+    <t>a_mintstatus_updated_on_isr_handler_entry</t>
+  </si>
+  <si>
+    <t>a_mcause_minhv_set_at_failing_ptr_fetch
+a_mcause_minhv_set_valid
+a_mcause_minhv_clear_valid</t>
+  </si>
+  <si>
+    <t>clic :: invalid_mtvt_ptr_exec</t>
+  </si>
+  <si>
+    <t>a_pc_to_mtvt_for_taken_shv_interrupt_outstanding_obi
+a_pc_to_mtvt_for_taken_shv_interrupt</t>
+  </si>
+  <si>
+    <t>a_pc_to_mtvec_for_taken_nonshv_interrupt</t>
+  </si>
+  <si>
+    <t>a_pc_alignment_of_taken_non_shv_interrupt</t>
+  </si>
+  <si>
+    <t>a_no_irq_no_ack</t>
+  </si>
+  <si>
+    <t>clicintie is external to core, only mstatus.mie fans in to core assertions/tests
+a_no_irq_no_ack</t>
+  </si>
+  <si>
+    <t>a_higher_lvl_than_mintthresh_th_can_preempt</t>
+  </si>
+  <si>
+    <t>a_lower_lvl_than_mintthresh_th_cannot_preempt</t>
+  </si>
+  <si>
+    <t>a_wfi_wfe_wakeup_condition_valid</t>
+  </si>
+  <si>
+    <t>a_wfi_wfe_wakeup_condition_not_valid</t>
+  </si>
+  <si>
+    <t>Covered by assertions below</t>
+  </si>
+  <si>
+    <t>a_wfi_wfe_causes_core_to_stop</t>
+  </si>
+  <si>
+    <t>a_wfi_wfe_causes_clock_gating</t>
+  </si>
+  <si>
+    <t>a_core_sleep_o_only_during_wfi_wfe</t>
+  </si>
+  <si>
+    <t>a_fencei_guarantee_visible_mtvt_write</t>
+  </si>
+  <si>
+    <t>a_mstatus_mie_reset_to_zero
+a_irq_ack_valid
+a_no_irq_no_ack</t>
+  </si>
+  <si>
+    <t>Waived - Ideally would like to have an assertion for this case, but it is not possible to separate cases on rvfi where the taken interrupts handler is interrupted by nmi, and thus appears to have an ack caused by nmi. 
+a_no_irq_no_ack should suffice to prove that we do not take an interrupt without an actual pending interrupt.</t>
+  </si>
+  <si>
+    <t>This is not a CLIC requirement</t>
+  </si>
+  <si>
+    <t>Implied proof by
+a_irq_ack_is_always_single_cycle_pulse (single pulse only) +
+a_irq_ack_valid (must be higher priority and enabled) +
+a_no_irq_no_ack (must never happen unless higher pri and enabled)</t>
+  </si>
+  <si>
+    <t>Waived - No RVFI visibility</t>
+  </si>
+  <si>
+    <t>a_horizontal_exception_service</t>
+  </si>
+  <si>
+    <t>a_vertical_exception_service</t>
+  </si>
+  <si>
+    <t>Waived - Outdated requirement</t>
+  </si>
+  <si>
+    <t>uvm_pkg.uvm_test_top.env.cov_model.clic_covg.clic_irq_entry.cp_irq
+uvm_pkg.uvm_test_top.env.cov_model.clic_covg.clic_irq_exit.cp_irq</t>
+  </si>
+  <si>
+    <t>uvm_pkg.uvm_test_top.env.cov_model.clic_covg.clic_irq_entry.cp_irq
+uvm_pkg.uvm_test_top.env.cov_model.clic_covg.clic_irq_exit.cp_irq
+Missing: c.lw</t>
+  </si>
+  <si>
+    <t>uvm_pkg.uvm_test_top.env.cov_model.clic_covg.clic_irq_entry.cp_irq
+uvm_pkg.uvm_test_top.env.cov_model.clic_covg.clic_irq_exit.cp_irq
+Missing: c.lw, c.addi16sp, c.addi4spn</t>
+  </si>
+  <si>
+    <t>uvm_pkg.uvm_test_top.env.cov_model.clic_covg.clic_irq_entry.cp_irq
+uvm_pkg.uvm_test_top.env.cov_model.clic_covg.clic_irq_exit.cp_irq
+Missing: csrrwi, csrrc</t>
+  </si>
+  <si>
+    <t>uvm_pkg.uvm_test_top.env.cov_model.clic_covg.clic_irq_entry.cp_irq
+uvm_pkg.uvm_test_top.env.cov_model.clic_covg.clic_irq_exit.cp_irq
+Missing: ecall, csrrwi, csrrc</t>
+  </si>
+  <si>
+    <t>Awaiting isacov update</t>
+  </si>
+  <si>
+    <t>Missing covergroup</t>
+  </si>
+  <si>
+    <t>uvm_pkg.uvm_test_top.env.cov_model.clic_covg.clic_irq_entry.cp_irq
+uvm_pkg.uvm_test_top.env.cov_model.clic_covg.clic_irq_exit.cp_irq
+See below, coverage model does not support Zcb, cmp, cmt</t>
+  </si>
+  <si>
+    <t>uvm_pkg.uvm_test_top.env.cov_model.clic_covg.clic_irq_entry.cp_wfi
+uvm_pkg.uvm_test_top.env.cov_model.clic_covg.clic_irq_exit.cp_wfi</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Waived on top level verification due to lack of visibility and precise specification of what prevents interrupts from being taken, and there exist no definite bound. 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="DejaVu Sans"/>
+      </rPr>
+      <t>Design assertion:
+Core_i.gen_clic_interrupt.clic_int_controller_i.clic_int_controller.sva.a_clic_enable</t>
+    </r>
+  </si>
+  <si>
+    <t>Interrupt levels inside { 0 .. 255 }</t>
+  </si>
+  <si>
+    <t>Requirement removed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+uvm_pkg.uvm_test_top.env.cov_model.clic_covg.clic_irq_entry.cp_irq</t>
+  </si>
+  <si>
+    <t>clic :: r_mnxti_without_irq
+clic :: rw_mnxti_without_irq_legal
+clic :: r_mnxti_with_pending_irq
+clic :: r_mnxti_with_lower_lvl_pending_irq
+clic :: w_mnxti_side_effects
+clic :: rw_mscratchcsw
+clic :: rw_mscratchcsw_illegal
+clic :: rw_mscratchcswl
+clic :: rw_mscratchcswl_illegal
+mintthresh write implicitly tested by 
+clic :: mintthresh_higher
+clic :: mintthresh_equal
+clic :: mintthresh_lower
+and compared with ISS
+mintstatus read implicitly tested by
+clic :: w_mnxti_side_effects</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Needs coverage model update, currently taken/not taken is not tracked
+</t>
+  </si>
+  <si>
+    <t>TODO: Expect this to be covered by assertions taking correct priority into account</t>
+  </si>
+  <si>
+    <t>TODO: Directed clic test should add case to test this</t>
+  </si>
+  <si>
+    <t>Missing covergroup, vc should use all interrupt levels</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Should apply to both wfi and wfe, the following tests use back to back wfe and wfi-instructions + randomly toggled interrupts/wfe-pin. 
+wfe_test :: wfe_wakeup_umode
+wfe_test :: wfe_wakeup
+wfe_test :: wfi_mstatus_tw_umode_illegal
+TODO: covergroups</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12">
+  <fonts count="19">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -2700,6 +2988,53 @@
       <name val="DejaVu Sans"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="DejaVu Sans"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="DejaVu Sans"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <strike/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="DejaVu Sans"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="DejaVu Sans"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="DejaVu Sans"/>
+    </font>
+    <font>
+      <b/>
+      <strike/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="DejaVu Sans"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="DejaVu Sans"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -2734,7 +3069,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -2780,11 +3115,37 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3210,25 +3571,25 @@
   <dimension ref="A1:I152"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A70" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A84" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="I74" sqref="I74"/>
+      <selection pane="bottomLeft" activeCell="G46" sqref="G46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="17" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="17" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="21.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="20.28515625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="31.140625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="51.28515625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="41.28515625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="21.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="18.42578125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="22.85546875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="74.140625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="21.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="20.33203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="31.1640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="51.33203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="41.33203125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="21.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="18.5" style="1" customWidth="1"/>
+    <col min="8" max="8" width="22.83203125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="79.1640625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="30">
+    <row r="1" spans="1:9" ht="32">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3257,7 +3618,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="57">
+    <row r="2" spans="1:9" ht="64">
       <c r="A2" s="10" t="s">
         <v>30</v>
       </c>
@@ -3282,9 +3643,11 @@
       <c r="H2" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="5"/>
-    </row>
-    <row r="3" spans="1:9" ht="57">
+      <c r="I2" s="5" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="64">
       <c r="A3" s="10" t="s">
         <v>30</v>
       </c>
@@ -3309,9 +3672,11 @@
       <c r="H3" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="I3" s="5"/>
-    </row>
-    <row r="4" spans="1:9" ht="28.5">
+      <c r="I3" s="5" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="64">
       <c r="A4" s="10" t="s">
         <v>36</v>
       </c>
@@ -3336,9 +3701,11 @@
       <c r="H4" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="I4" s="5"/>
-    </row>
-    <row r="5" spans="1:9" ht="42.75">
+      <c r="I4" s="5" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="64">
       <c r="A5" s="10" t="s">
         <v>39</v>
       </c>
@@ -3363,9 +3730,11 @@
       <c r="H5" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="I5" s="5"/>
-    </row>
-    <row r="6" spans="1:9" ht="42.75">
+      <c r="I5" s="21" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="64">
       <c r="A6" s="10" t="s">
         <v>36</v>
       </c>
@@ -3390,9 +3759,11 @@
       <c r="H6" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="I6" s="5"/>
-    </row>
-    <row r="7" spans="1:9" ht="57">
+      <c r="I6" s="5" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="64">
       <c r="A7" s="10" t="s">
         <v>36</v>
       </c>
@@ -3417,9 +3788,11 @@
       <c r="H7" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="I7" s="5"/>
-    </row>
-    <row r="8" spans="1:9" ht="28.5">
+      <c r="I7" s="5" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="64">
       <c r="A8" s="10" t="s">
         <v>36</v>
       </c>
@@ -3444,9 +3817,11 @@
       <c r="H8" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="I8" s="5"/>
-    </row>
-    <row r="9" spans="1:9" ht="28.5">
+      <c r="I8" s="5" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="32">
       <c r="A9" s="10" t="s">
         <v>36</v>
       </c>
@@ -3457,10 +3832,10 @@
         <v>50</v>
       </c>
       <c r="D9" s="11" t="s">
+        <v>450</v>
+      </c>
+      <c r="E9" s="11" t="s">
         <v>53</v>
-      </c>
-      <c r="E9" s="11" t="s">
-        <v>54</v>
       </c>
       <c r="F9" s="11" t="s">
         <v>15</v>
@@ -3471,9 +3846,11 @@
       <c r="H9" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="I9" s="5"/>
-    </row>
-    <row r="10" spans="1:9" ht="28.5">
+      <c r="I9" s="20" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="64">
       <c r="A10" s="10" t="s">
         <v>36</v>
       </c>
@@ -3481,13 +3858,13 @@
         <v>43</v>
       </c>
       <c r="C10" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="D10" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="D10" s="11" t="s">
+      <c r="E10" s="11" t="s">
         <v>56</v>
-      </c>
-      <c r="E10" s="11" t="s">
-        <v>57</v>
       </c>
       <c r="F10" s="11" t="s">
         <v>18</v>
@@ -3498,23 +3875,25 @@
       <c r="H10" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="I10" s="5"/>
-    </row>
-    <row r="11" spans="1:9" ht="71.25">
+      <c r="I10" s="5" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="112">
       <c r="A11" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="B11" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="B11" s="11" t="s">
+      <c r="C11" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="C11" s="11" t="s">
+      <c r="D11" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="D11" s="11" t="s">
+      <c r="E11" s="11" t="s">
         <v>61</v>
-      </c>
-      <c r="E11" s="11" t="s">
-        <v>62</v>
       </c>
       <c r="F11" s="11" t="s">
         <v>18</v>
@@ -3525,23 +3904,25 @@
       <c r="H11" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="I11" s="5"/>
-    </row>
-    <row r="12" spans="1:9" ht="42.75">
+      <c r="I11" s="23" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="64">
       <c r="A12" s="10" t="s">
         <v>36</v>
       </c>
       <c r="B12" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="C12" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="C12" s="11" t="s">
+      <c r="D12" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="D12" s="11" t="s">
+      <c r="E12" s="11" t="s">
         <v>65</v>
-      </c>
-      <c r="E12" s="11" t="s">
-        <v>66</v>
       </c>
       <c r="F12" s="11" t="s">
         <v>21</v>
@@ -3552,23 +3933,25 @@
       <c r="H12" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="I12" s="5"/>
-    </row>
-    <row r="13" spans="1:9" ht="28.5">
+      <c r="I12" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="64">
       <c r="A13" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C13" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="D13" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="D13" s="11" t="s">
+      <c r="E13" s="11" t="s">
         <v>68</v>
-      </c>
-      <c r="E13" s="11" t="s">
-        <v>69</v>
       </c>
       <c r="F13" s="11" t="s">
         <v>18</v>
@@ -3579,23 +3962,25 @@
       <c r="H13" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="I13" s="5"/>
-    </row>
-    <row r="14" spans="1:9" ht="28.5">
+      <c r="I13" s="5" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="64">
       <c r="A14" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C14" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="D14" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="D14" s="11" t="s">
+      <c r="E14" s="11" t="s">
         <v>71</v>
-      </c>
-      <c r="E14" s="11" t="s">
-        <v>72</v>
       </c>
       <c r="F14" s="11" t="s">
         <v>18</v>
@@ -3606,23 +3991,25 @@
       <c r="H14" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="I14" s="5"/>
-    </row>
-    <row r="15" spans="1:9" ht="42.75">
+      <c r="I14" s="21" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="112">
       <c r="A15" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C15" s="11" t="s">
         <v>47</v>
       </c>
       <c r="D15" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="E15" s="11" t="s">
         <v>73</v>
-      </c>
-      <c r="E15" s="11" t="s">
-        <v>74</v>
       </c>
       <c r="F15" s="11" t="s">
         <v>18</v>
@@ -3633,23 +4020,25 @@
       <c r="H15" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="I15" s="5"/>
-    </row>
-    <row r="16" spans="1:9" ht="28.5">
+      <c r="I15" s="21" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="64">
       <c r="A16" s="12" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B16" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="C16" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="C16" s="13" t="s">
+      <c r="D16" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="D16" s="13" t="s">
+      <c r="E16" s="13" t="s">
         <v>77</v>
-      </c>
-      <c r="E16" s="13" t="s">
-        <v>78</v>
       </c>
       <c r="F16" s="13" t="s">
         <v>18</v>
@@ -3660,50 +4049,54 @@
       <c r="H16" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="I16" s="5"/>
-    </row>
-    <row r="17" spans="1:9" ht="42.75">
-      <c r="A17" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="B17" s="13" t="s">
-        <v>75</v>
-      </c>
-      <c r="C17" s="13" t="s">
+      <c r="I16" s="5" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="64">
+      <c r="A17" s="24" t="s">
+        <v>57</v>
+      </c>
+      <c r="B17" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="C17" s="25" t="s">
+        <v>78</v>
+      </c>
+      <c r="D17" s="25" t="s">
         <v>79</v>
       </c>
-      <c r="D17" s="13" t="s">
+      <c r="E17" s="25" t="s">
         <v>80</v>
       </c>
-      <c r="E17" s="13" t="s">
+      <c r="F17" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="G17" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="H17" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="I17" s="22" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="80">
+      <c r="A18" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="C18" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="F17" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="G17" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="H17" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="I17" s="5"/>
-    </row>
-    <row r="18" spans="1:9" ht="28.5">
-      <c r="A18" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="B18" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="C18" s="11" t="s">
+      <c r="D18" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="D18" s="11" t="s">
+      <c r="E18" s="11" t="s">
         <v>83</v>
-      </c>
-      <c r="E18" s="11" t="s">
-        <v>84</v>
       </c>
       <c r="F18" s="11" t="s">
         <v>18</v>
@@ -3714,23 +4107,25 @@
       <c r="H18" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="I18" s="5"/>
-    </row>
-    <row r="19" spans="1:9" ht="57">
+      <c r="I18" s="21" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="64">
       <c r="A19" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="C19" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="B19" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="C19" s="11" t="s">
+      <c r="D19" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="D19" s="11" t="s">
+      <c r="E19" s="11" t="s">
         <v>87</v>
-      </c>
-      <c r="E19" s="11" t="s">
-        <v>88</v>
       </c>
       <c r="F19" s="11" t="s">
         <v>18</v>
@@ -3741,50 +4136,54 @@
       <c r="H19" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="I19" s="5"/>
-    </row>
-    <row r="20" spans="1:9" ht="57">
-      <c r="A20" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="B20" s="11" t="s">
+      <c r="I19" s="5" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="64">
+      <c r="A20" s="24" t="s">
+        <v>57</v>
+      </c>
+      <c r="B20" s="25" t="s">
+        <v>88</v>
+      </c>
+      <c r="C20" s="25" t="s">
         <v>89</v>
       </c>
-      <c r="C20" s="11" t="s">
+      <c r="D20" s="25" t="s">
         <v>90</v>
       </c>
-      <c r="D20" s="11" t="s">
+      <c r="E20" s="25" t="s">
         <v>91</v>
       </c>
-      <c r="E20" s="11" t="s">
+      <c r="F20" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="G20" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="H20" s="25" t="s">
         <v>92</v>
       </c>
-      <c r="F20" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="G20" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="H20" s="11" t="s">
-        <v>93</v>
-      </c>
-      <c r="I20" s="5"/>
-    </row>
-    <row r="21" spans="1:9" ht="28.5">
+      <c r="I20" s="22" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="32">
       <c r="A21" s="10" t="s">
         <v>30</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C21" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="D21" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="D21" s="11" t="s">
+      <c r="E21" s="11" t="s">
         <v>95</v>
-      </c>
-      <c r="E21" s="11" t="s">
-        <v>96</v>
       </c>
       <c r="F21" s="11" t="s">
         <v>9</v>
@@ -3795,23 +4194,25 @@
       <c r="H21" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="I21" s="5"/>
-    </row>
-    <row r="22" spans="1:9" ht="28.5">
+      <c r="I21" s="21" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="32">
       <c r="A22" s="10" t="s">
         <v>30</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C22" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="D22" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="D22" s="11" t="s">
+      <c r="E22" s="11" t="s">
         <v>98</v>
-      </c>
-      <c r="E22" s="11" t="s">
-        <v>99</v>
       </c>
       <c r="F22" s="11" t="s">
         <v>9</v>
@@ -3822,23 +4223,25 @@
       <c r="H22" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="I22" s="5"/>
-    </row>
-    <row r="23" spans="1:9" ht="28.5">
+      <c r="I22" s="21" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="32">
       <c r="A23" s="10" t="s">
         <v>30</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C23" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="D23" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="D23" s="11" t="s">
+      <c r="E23" s="11" t="s">
         <v>101</v>
-      </c>
-      <c r="E23" s="11" t="s">
-        <v>102</v>
       </c>
       <c r="F23" s="11" t="s">
         <v>9</v>
@@ -3849,23 +4252,25 @@
       <c r="H23" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="I23" s="5"/>
-    </row>
-    <row r="24" spans="1:9" ht="28.5">
+      <c r="I23" s="21" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="32">
       <c r="A24" s="10" t="s">
         <v>30</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C24" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="D24" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="D24" s="11" t="s">
+      <c r="E24" s="11" t="s">
         <v>104</v>
-      </c>
-      <c r="E24" s="11" t="s">
-        <v>105</v>
       </c>
       <c r="F24" s="11" t="s">
         <v>9</v>
@@ -3876,23 +4281,25 @@
       <c r="H24" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="I24" s="5"/>
-    </row>
-    <row r="25" spans="1:9" ht="28.5">
+      <c r="I24" s="21" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="64">
       <c r="A25" s="10" t="s">
         <v>30</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C25" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="D25" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="D25" s="11" t="s">
+      <c r="E25" s="11" t="s">
         <v>107</v>
-      </c>
-      <c r="E25" s="11" t="s">
-        <v>108</v>
       </c>
       <c r="F25" s="11" t="s">
         <v>18</v>
@@ -3903,23 +4310,25 @@
       <c r="H25" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="I25" s="5"/>
-    </row>
-    <row r="26" spans="1:9" ht="28.5">
+      <c r="I25" s="5" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="32">
       <c r="A26" s="10" t="s">
         <v>30</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D26" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="E26" s="11" t="s">
         <v>109</v>
-      </c>
-      <c r="E26" s="11" t="s">
-        <v>110</v>
       </c>
       <c r="F26" s="11" t="s">
         <v>9</v>
@@ -3930,23 +4339,25 @@
       <c r="H26" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="I26" s="5"/>
-    </row>
-    <row r="27" spans="1:9" ht="28.5">
+      <c r="I26" s="5" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="64">
       <c r="A27" s="10" t="s">
         <v>30</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C27" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="D27" s="11" t="s">
         <v>111</v>
       </c>
-      <c r="D27" s="11" t="s">
+      <c r="E27" s="11" t="s">
         <v>112</v>
-      </c>
-      <c r="E27" s="11" t="s">
-        <v>113</v>
       </c>
       <c r="F27" s="11" t="s">
         <v>18</v>
@@ -3957,23 +4368,25 @@
       <c r="H27" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="I27" s="5"/>
-    </row>
-    <row r="28" spans="1:9" ht="28.5">
+      <c r="I27" s="5" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="32">
       <c r="A28" s="10" t="s">
         <v>30</v>
       </c>
       <c r="B28" s="11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C28" s="11" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D28" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="E28" s="11" t="s">
         <v>114</v>
-      </c>
-      <c r="E28" s="11" t="s">
-        <v>115</v>
       </c>
       <c r="F28" s="11" t="s">
         <v>9</v>
@@ -3984,23 +4397,25 @@
       <c r="H28" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="I28" s="5"/>
-    </row>
-    <row r="29" spans="1:9" ht="28.5">
+      <c r="I28" s="5" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="64">
       <c r="A29" s="10" t="s">
         <v>36</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C29" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="D29" s="11" t="s">
         <v>116</v>
       </c>
-      <c r="D29" s="11" t="s">
+      <c r="E29" s="11" t="s">
         <v>117</v>
-      </c>
-      <c r="E29" s="11" t="s">
-        <v>118</v>
       </c>
       <c r="F29" s="11" t="s">
         <v>18</v>
@@ -4011,23 +4426,25 @@
       <c r="H29" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="I29" s="5"/>
-    </row>
-    <row r="30" spans="1:9" ht="28.5">
+      <c r="I29" s="5" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="64">
       <c r="A30" s="10" t="s">
         <v>36</v>
       </c>
       <c r="B30" s="11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C30" s="11" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D30" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="E30" s="11" t="s">
         <v>119</v>
-      </c>
-      <c r="E30" s="11" t="s">
-        <v>120</v>
       </c>
       <c r="F30" s="11" t="s">
         <v>18</v>
@@ -4038,23 +4455,25 @@
       <c r="H30" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="I30" s="5"/>
-    </row>
-    <row r="31" spans="1:9" ht="71.25">
+      <c r="I30" s="5" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="96">
       <c r="A31" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B31" s="11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C31" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="D31" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="D31" s="11" t="s">
+      <c r="E31" s="11" t="s">
         <v>122</v>
-      </c>
-      <c r="E31" s="11" t="s">
-        <v>123</v>
       </c>
       <c r="F31" s="11" t="s">
         <v>18</v>
@@ -4065,23 +4484,25 @@
       <c r="H31" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="I31" s="5"/>
-    </row>
-    <row r="32" spans="1:9" ht="228">
+      <c r="I31" s="5" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="304">
       <c r="A32" s="10" t="s">
         <v>30</v>
       </c>
       <c r="B32" s="11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C32" s="11" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D32" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="E32" s="11" t="s">
         <v>124</v>
-      </c>
-      <c r="E32" s="11" t="s">
-        <v>125</v>
       </c>
       <c r="F32" s="11" t="s">
         <v>18</v>
@@ -4092,23 +4513,25 @@
       <c r="H32" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="I32" s="5"/>
-    </row>
-    <row r="33" spans="1:9" ht="28.5">
+      <c r="I32" s="20" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" ht="64">
       <c r="A33" s="10" t="s">
         <v>36</v>
       </c>
       <c r="B33" s="11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C33" s="11" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D33" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="E33" s="11" t="s">
         <v>126</v>
-      </c>
-      <c r="E33" s="11" t="s">
-        <v>127</v>
       </c>
       <c r="F33" s="11" t="s">
         <v>18</v>
@@ -4119,23 +4542,25 @@
       <c r="H33" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="I33" s="5"/>
-    </row>
-    <row r="34" spans="1:9" ht="42.75">
+      <c r="I33" s="5" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" ht="48">
       <c r="A34" s="10" t="s">
         <v>30</v>
       </c>
       <c r="B34" s="11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C34" s="11" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D34" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="E34" s="11" t="s">
         <v>128</v>
-      </c>
-      <c r="E34" s="11" t="s">
-        <v>129</v>
       </c>
       <c r="F34" s="11" t="s">
         <v>9</v>
@@ -4146,23 +4571,25 @@
       <c r="H34" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="I34" s="5"/>
-    </row>
-    <row r="35" spans="1:9" ht="42.75">
+      <c r="I34" s="5" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="64">
       <c r="A35" s="10" t="s">
         <v>30</v>
       </c>
       <c r="B35" s="11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C35" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="D35" s="11" t="s">
         <v>130</v>
       </c>
-      <c r="D35" s="11" t="s">
+      <c r="E35" s="11" t="s">
         <v>131</v>
-      </c>
-      <c r="E35" s="11" t="s">
-        <v>132</v>
       </c>
       <c r="F35" s="11" t="s">
         <v>18</v>
@@ -4173,23 +4600,25 @@
       <c r="H35" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="I35" s="5"/>
-    </row>
-    <row r="36" spans="1:9" ht="28.5">
+      <c r="I35" s="5" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" ht="64">
       <c r="A36" s="10" t="s">
         <v>39</v>
       </c>
       <c r="B36" s="11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C36" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="D36" s="11" t="s">
         <v>133</v>
       </c>
-      <c r="D36" s="11" t="s">
+      <c r="E36" s="11" t="s">
         <v>134</v>
-      </c>
-      <c r="E36" s="11" t="s">
-        <v>135</v>
       </c>
       <c r="F36" s="11" t="s">
         <v>18</v>
@@ -4200,23 +4629,25 @@
       <c r="H36" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="I36" s="5"/>
-    </row>
-    <row r="37" spans="1:9" ht="28.5">
+      <c r="I36" s="5" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" ht="64">
       <c r="A37" s="10" t="s">
         <v>30</v>
       </c>
       <c r="B37" s="11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C37" s="11" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D37" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="E37" s="11" t="s">
         <v>136</v>
-      </c>
-      <c r="E37" s="11" t="s">
-        <v>137</v>
       </c>
       <c r="F37" s="11" t="s">
         <v>18</v>
@@ -4227,23 +4658,25 @@
       <c r="H37" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="I37" s="5"/>
-    </row>
-    <row r="38" spans="1:9" ht="28.5">
+      <c r="I37" s="5" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" ht="64">
       <c r="A38" s="10" t="s">
         <v>30</v>
       </c>
       <c r="B38" s="11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C38" s="11" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D38" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="E38" s="11" t="s">
         <v>138</v>
-      </c>
-      <c r="E38" s="11" t="s">
-        <v>139</v>
       </c>
       <c r="F38" s="11" t="s">
         <v>18</v>
@@ -4254,23 +4687,25 @@
       <c r="H38" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="I38" s="5"/>
-    </row>
-    <row r="39" spans="1:9" ht="42.75">
+      <c r="I38" s="5" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" ht="64">
       <c r="A39" s="10" t="s">
         <v>30</v>
       </c>
       <c r="B39" s="11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C39" s="11" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D39" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="E39" s="11" t="s">
         <v>140</v>
-      </c>
-      <c r="E39" s="11" t="s">
-        <v>141</v>
       </c>
       <c r="F39" s="11" t="s">
         <v>18</v>
@@ -4281,23 +4716,25 @@
       <c r="H39" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="I39" s="5"/>
-    </row>
-    <row r="40" spans="1:9" ht="42.75">
+      <c r="I39" s="5" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" ht="64">
       <c r="A40" s="10" t="s">
         <v>30</v>
       </c>
       <c r="B40" s="11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C40" s="11" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D40" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="E40" s="11" t="s">
         <v>142</v>
-      </c>
-      <c r="E40" s="11" t="s">
-        <v>143</v>
       </c>
       <c r="F40" s="11" t="s">
         <v>18</v>
@@ -4308,23 +4745,25 @@
       <c r="H40" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="I40" s="5"/>
-    </row>
-    <row r="41" spans="1:9" ht="171">
+      <c r="I40" s="5" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" ht="208">
       <c r="A41" s="10" t="s">
         <v>30</v>
       </c>
       <c r="B41" s="11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C41" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="D41" s="11" t="s">
         <v>144</v>
       </c>
-      <c r="D41" s="11" t="s">
+      <c r="E41" s="11" t="s">
         <v>145</v>
-      </c>
-      <c r="E41" s="11" t="s">
-        <v>146</v>
       </c>
       <c r="F41" s="11" t="s">
         <v>18</v>
@@ -4335,23 +4774,25 @@
       <c r="H41" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="I41" s="5"/>
-    </row>
-    <row r="42" spans="1:9" ht="213.75">
+      <c r="I41" s="5" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" ht="288">
       <c r="A42" s="10" t="s">
         <v>30</v>
       </c>
       <c r="B42" s="11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C42" s="11" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D42" s="11" t="s">
+        <v>146</v>
+      </c>
+      <c r="E42" s="11" t="s">
         <v>147</v>
-      </c>
-      <c r="E42" s="11" t="s">
-        <v>148</v>
       </c>
       <c r="F42" s="11" t="s">
         <v>18</v>
@@ -4362,23 +4803,25 @@
       <c r="H42" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="I42" s="5"/>
-    </row>
-    <row r="43" spans="1:9" ht="185.25">
+      <c r="I42" s="5" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" ht="240">
       <c r="A43" s="10" t="s">
         <v>30</v>
       </c>
       <c r="B43" s="11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C43" s="11" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D43" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="E43" s="11" t="s">
         <v>149</v>
-      </c>
-      <c r="E43" s="11" t="s">
-        <v>150</v>
       </c>
       <c r="F43" s="11" t="s">
         <v>23</v>
@@ -4389,23 +4832,25 @@
       <c r="H43" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="I43" s="5"/>
-    </row>
-    <row r="44" spans="1:9" ht="213.75">
+      <c r="I43" s="5" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" ht="288">
       <c r="A44" s="10" t="s">
         <v>30</v>
       </c>
       <c r="B44" s="11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C44" s="11" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D44" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="E44" s="11" t="s">
         <v>151</v>
-      </c>
-      <c r="E44" s="11" t="s">
-        <v>152</v>
       </c>
       <c r="F44" s="11" t="s">
         <v>18</v>
@@ -4416,23 +4861,25 @@
       <c r="H44" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="I44" s="5"/>
-    </row>
-    <row r="45" spans="1:9" ht="199.5">
+      <c r="I44" s="5" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" ht="256">
       <c r="A45" s="10" t="s">
         <v>30</v>
       </c>
       <c r="B45" s="11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C45" s="11" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D45" s="11" t="s">
+        <v>152</v>
+      </c>
+      <c r="E45" s="11" t="s">
         <v>153</v>
-      </c>
-      <c r="E45" s="11" t="s">
-        <v>154</v>
       </c>
       <c r="F45" s="11" t="s">
         <v>18</v>
@@ -4443,23 +4890,25 @@
       <c r="H45" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="I45" s="5"/>
-    </row>
-    <row r="46" spans="1:9" ht="142.5">
+      <c r="I45" s="21" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" ht="192">
       <c r="A46" s="10" t="s">
         <v>30</v>
       </c>
       <c r="B46" s="11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C46" s="11" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D46" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="E46" s="11" t="s">
         <v>155</v>
-      </c>
-      <c r="E46" s="11" t="s">
-        <v>156</v>
       </c>
       <c r="F46" s="11" t="s">
         <v>18</v>
@@ -4470,23 +4919,25 @@
       <c r="H46" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="I46" s="5"/>
-    </row>
-    <row r="47" spans="1:9" ht="99.75">
+      <c r="I46" s="5" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" ht="128">
       <c r="A47" s="10" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B47" s="11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C47" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="D47" s="11" t="s">
         <v>157</v>
       </c>
-      <c r="D47" s="11" t="s">
-        <v>158</v>
-      </c>
       <c r="E47" s="11" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="F47" s="11" t="s">
         <v>18</v>
@@ -4497,23 +4948,25 @@
       <c r="H47" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="I47" s="5"/>
-    </row>
-    <row r="48" spans="1:9" ht="225" customHeight="1">
+      <c r="I47" s="5" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" ht="255" customHeight="1">
       <c r="A48" s="10" t="s">
         <v>36</v>
       </c>
       <c r="B48" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="C48" s="11" t="s">
         <v>159</v>
       </c>
-      <c r="C48" s="11" t="s">
+      <c r="D48" s="11" t="s">
         <v>160</v>
       </c>
-      <c r="D48" s="11" t="s">
-        <v>161</v>
-      </c>
       <c r="E48" s="11" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F48" s="11" t="s">
         <v>9</v>
@@ -4524,23 +4977,25 @@
       <c r="H48" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="I48" s="5"/>
-    </row>
-    <row r="49" spans="1:9" ht="28.5">
+      <c r="I48" s="21" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" ht="48">
       <c r="A49" s="10" t="s">
         <v>30</v>
       </c>
       <c r="B49" s="11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C49" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="D49" s="11" t="s">
         <v>162</v>
       </c>
-      <c r="D49" s="11" t="s">
+      <c r="E49" s="11" t="s">
         <v>163</v>
-      </c>
-      <c r="E49" s="11" t="s">
-        <v>164</v>
       </c>
       <c r="F49" s="11" t="s">
         <v>18</v>
@@ -4551,50 +5006,54 @@
       <c r="H49" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="I49" s="5"/>
-    </row>
-    <row r="50" spans="1:9" ht="42.75">
-      <c r="A50" s="10" t="s">
+      <c r="I49" s="29" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" ht="68">
+      <c r="A50" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="B50" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="C50" s="11" t="s">
-        <v>162</v>
-      </c>
-      <c r="D50" s="11" t="s">
+      <c r="B50" s="27" t="s">
+        <v>88</v>
+      </c>
+      <c r="C50" s="27" t="s">
+        <v>161</v>
+      </c>
+      <c r="D50" s="27" t="s">
+        <v>164</v>
+      </c>
+      <c r="E50" s="27" t="s">
         <v>165</v>
       </c>
-      <c r="E50" s="11" t="s">
-        <v>166</v>
-      </c>
-      <c r="F50" s="11" t="s">
+      <c r="F50" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="G50" s="11" t="s">
+      <c r="G50" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="H50" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="I50" s="5"/>
-    </row>
-    <row r="51" spans="1:9" ht="57">
+      <c r="H50" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="I50" s="28" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" ht="96">
       <c r="A51" s="10" t="s">
         <v>30</v>
       </c>
       <c r="B51" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="C51" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="D51" s="11" t="s">
         <v>167</v>
       </c>
-      <c r="C51" s="11" t="s">
-        <v>162</v>
-      </c>
-      <c r="D51" s="11" t="s">
+      <c r="E51" s="11" t="s">
         <v>168</v>
-      </c>
-      <c r="E51" s="11" t="s">
-        <v>169</v>
       </c>
       <c r="F51" s="11" t="s">
         <v>15</v>
@@ -4605,50 +5064,54 @@
       <c r="H51" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="I51" s="5"/>
-    </row>
-    <row r="52" spans="1:9" ht="57">
-      <c r="A52" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="B52" s="11" t="s">
-        <v>167</v>
-      </c>
-      <c r="C52" s="11" t="s">
-        <v>162</v>
-      </c>
-      <c r="D52" s="11" t="s">
+      <c r="I51" s="5" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" ht="64">
+      <c r="A52" s="24" t="s">
+        <v>57</v>
+      </c>
+      <c r="B52" s="25" t="s">
+        <v>166</v>
+      </c>
+      <c r="C52" s="25" t="s">
+        <v>161</v>
+      </c>
+      <c r="D52" s="25" t="s">
+        <v>169</v>
+      </c>
+      <c r="E52" s="25" t="s">
         <v>170</v>
       </c>
-      <c r="E52" s="11" t="s">
-        <v>171</v>
-      </c>
-      <c r="F52" s="11" t="s">
+      <c r="F52" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="G52" s="11" t="s">
+      <c r="G52" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="H52" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="I52" s="5"/>
-    </row>
-    <row r="53" spans="1:9" ht="57">
+      <c r="H52" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="I52" s="20" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" ht="64">
       <c r="A53" s="10" t="s">
         <v>30</v>
       </c>
       <c r="B53" s="11" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C53" s="11" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D53" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="E53" s="11" t="s">
         <v>172</v>
-      </c>
-      <c r="E53" s="11" t="s">
-        <v>173</v>
       </c>
       <c r="F53" s="11" t="s">
         <v>18</v>
@@ -4659,23 +5122,25 @@
       <c r="H53" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="I53" s="5"/>
-    </row>
-    <row r="54" spans="1:9" ht="28.5">
+      <c r="I53" s="21" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" ht="64">
       <c r="A54" s="10" t="s">
         <v>30</v>
       </c>
       <c r="B54" s="11" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C54" s="11" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D54" s="11" t="s">
+        <v>173</v>
+      </c>
+      <c r="E54" s="11" t="s">
         <v>174</v>
-      </c>
-      <c r="E54" s="11" t="s">
-        <v>175</v>
       </c>
       <c r="F54" s="11" t="s">
         <v>18</v>
@@ -4686,23 +5151,25 @@
       <c r="H54" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="I54" s="5"/>
-    </row>
-    <row r="55" spans="1:9" ht="42.75">
+      <c r="I54" s="5" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" ht="64">
       <c r="A55" s="10" t="s">
         <v>36</v>
       </c>
       <c r="B55" s="11" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C55" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="D55" s="11" t="s">
         <v>176</v>
       </c>
-      <c r="D55" s="11" t="s">
+      <c r="E55" s="11" t="s">
         <v>177</v>
-      </c>
-      <c r="E55" s="11" t="s">
-        <v>178</v>
       </c>
       <c r="F55" s="11" t="s">
         <v>18</v>
@@ -4713,23 +5180,25 @@
       <c r="H55" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="I55" s="5"/>
-    </row>
-    <row r="56" spans="1:9" ht="71.25">
+      <c r="I55" s="5" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" ht="96">
       <c r="A56" s="10" t="s">
         <v>30</v>
       </c>
       <c r="B56" s="11" t="s">
+        <v>178</v>
+      </c>
+      <c r="C56" s="11" t="s">
         <v>179</v>
       </c>
-      <c r="C56" s="11" t="s">
+      <c r="D56" s="11" t="s">
         <v>180</v>
       </c>
-      <c r="D56" s="11" t="s">
+      <c r="E56" s="11" t="s">
         <v>181</v>
-      </c>
-      <c r="E56" s="11" t="s">
-        <v>182</v>
       </c>
       <c r="F56" s="11" t="s">
         <v>23</v>
@@ -4740,23 +5209,25 @@
       <c r="H56" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="I56" s="5"/>
-    </row>
-    <row r="57" spans="1:9" ht="228">
+      <c r="I56" s="5" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" ht="320">
       <c r="A57" s="10" t="s">
         <v>30</v>
       </c>
       <c r="B57" s="11" t="s">
+        <v>178</v>
+      </c>
+      <c r="C57" s="11" t="s">
         <v>179</v>
       </c>
-      <c r="C57" s="11" t="s">
-        <v>180</v>
-      </c>
       <c r="D57" s="11" t="s">
+        <v>182</v>
+      </c>
+      <c r="E57" s="11" t="s">
         <v>183</v>
-      </c>
-      <c r="E57" s="11" t="s">
-        <v>184</v>
       </c>
       <c r="F57" s="11" t="s">
         <v>15</v>
@@ -4767,23 +5238,25 @@
       <c r="H57" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="I57" s="5"/>
-    </row>
-    <row r="58" spans="1:9" ht="128.25">
+      <c r="I57" s="5" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" ht="176">
       <c r="A58" s="10" t="s">
         <v>30</v>
       </c>
       <c r="B58" s="11" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C58" s="11" t="s">
+        <v>184</v>
+      </c>
+      <c r="D58" s="11" t="s">
         <v>185</v>
       </c>
-      <c r="D58" s="11" t="s">
+      <c r="E58" s="11" t="s">
         <v>186</v>
-      </c>
-      <c r="E58" s="11" t="s">
-        <v>187</v>
       </c>
       <c r="F58" s="11" t="s">
         <v>15</v>
@@ -4794,23 +5267,25 @@
       <c r="H58" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="I58" s="5"/>
-    </row>
-    <row r="59" spans="1:9" ht="256.5">
+      <c r="I58" s="21" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" ht="335">
       <c r="A59" s="10" t="s">
         <v>30</v>
       </c>
       <c r="B59" s="11" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C59" s="11" t="s">
+        <v>187</v>
+      </c>
+      <c r="D59" s="11" t="s">
         <v>188</v>
       </c>
-      <c r="D59" s="11" t="s">
+      <c r="E59" s="11" t="s">
         <v>189</v>
-      </c>
-      <c r="E59" s="11" t="s">
-        <v>190</v>
       </c>
       <c r="F59" s="11" t="s">
         <v>15</v>
@@ -4821,23 +5296,25 @@
       <c r="H59" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="I59" s="5"/>
-    </row>
-    <row r="60" spans="1:9" ht="242.25">
+      <c r="I59" s="5" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" ht="320">
       <c r="A60" s="10" t="s">
         <v>30</v>
       </c>
       <c r="B60" s="11" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C60" s="11" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D60" s="11" t="s">
+        <v>190</v>
+      </c>
+      <c r="E60" s="11" t="s">
         <v>191</v>
-      </c>
-      <c r="E60" s="11" t="s">
-        <v>192</v>
       </c>
       <c r="F60" s="11" t="s">
         <v>15</v>
@@ -4848,23 +5325,25 @@
       <c r="H60" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="I60" s="5"/>
-    </row>
-    <row r="61" spans="1:9" ht="270.75">
+      <c r="I60" s="5" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" ht="335">
       <c r="A61" s="10" t="s">
         <v>30</v>
       </c>
       <c r="B61" s="11" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C61" s="11" t="s">
+        <v>192</v>
+      </c>
+      <c r="D61" s="11" t="s">
         <v>193</v>
       </c>
-      <c r="D61" s="11" t="s">
+      <c r="E61" s="11" t="s">
         <v>194</v>
-      </c>
-      <c r="E61" s="11" t="s">
-        <v>195</v>
       </c>
       <c r="F61" s="11" t="s">
         <v>15</v>
@@ -4875,23 +5354,25 @@
       <c r="H61" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="I61" s="5"/>
-    </row>
-    <row r="62" spans="1:9" ht="256.5">
+      <c r="I61" s="21" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" ht="320">
       <c r="A62" s="10" t="s">
         <v>30</v>
       </c>
       <c r="B62" s="11" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C62" s="11" t="s">
+        <v>195</v>
+      </c>
+      <c r="D62" s="11" t="s">
         <v>196</v>
       </c>
-      <c r="D62" s="11" t="s">
+      <c r="E62" s="11" t="s">
         <v>197</v>
-      </c>
-      <c r="E62" s="11" t="s">
-        <v>198</v>
       </c>
       <c r="F62" s="11" t="s">
         <v>15</v>
@@ -4902,23 +5383,25 @@
       <c r="H62" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="I62" s="5"/>
-    </row>
-    <row r="63" spans="1:9" ht="114">
+      <c r="I62" s="5" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" ht="128">
       <c r="A63" s="10" t="s">
         <v>30</v>
       </c>
       <c r="B63" s="11" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C63" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D63" s="11" t="s">
+        <v>198</v>
+      </c>
+      <c r="E63" s="11" t="s">
         <v>199</v>
-      </c>
-      <c r="E63" s="11" t="s">
-        <v>200</v>
       </c>
       <c r="F63" s="11" t="s">
         <v>18</v>
@@ -4929,23 +5412,25 @@
       <c r="H63" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="I63" s="5"/>
-    </row>
-    <row r="64" spans="1:9" ht="57.75">
+      <c r="I63" s="21" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" ht="80">
       <c r="A64" s="10" t="s">
         <v>30</v>
       </c>
       <c r="B64" s="11" t="s">
+        <v>200</v>
+      </c>
+      <c r="C64" s="11" t="s">
         <v>201</v>
       </c>
-      <c r="C64" s="11" t="s">
+      <c r="D64" s="11" t="s">
         <v>202</v>
       </c>
-      <c r="D64" s="11" t="s">
+      <c r="E64" s="11" t="s">
         <v>203</v>
-      </c>
-      <c r="E64" s="11" t="s">
-        <v>204</v>
       </c>
       <c r="F64" s="11" t="s">
         <v>18</v>
@@ -4956,23 +5441,25 @@
       <c r="H64" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="I64" s="5"/>
-    </row>
-    <row r="65" spans="1:9" ht="57.75">
+      <c r="I64" s="5" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" ht="80">
       <c r="A65" s="10" t="s">
         <v>30</v>
       </c>
       <c r="B65" s="11" t="s">
+        <v>200</v>
+      </c>
+      <c r="C65" s="11" t="s">
         <v>201</v>
       </c>
-      <c r="C65" s="11" t="s">
-        <v>202</v>
-      </c>
       <c r="D65" s="11" t="s">
+        <v>204</v>
+      </c>
+      <c r="E65" s="11" t="s">
         <v>205</v>
-      </c>
-      <c r="E65" s="11" t="s">
-        <v>206</v>
       </c>
       <c r="F65" s="11" t="s">
         <v>18</v>
@@ -4983,23 +5470,25 @@
       <c r="H65" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="I65" s="5"/>
-    </row>
-    <row r="66" spans="1:9" ht="129">
+      <c r="I65" s="5" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" ht="144">
       <c r="A66" s="10" t="s">
         <v>30</v>
       </c>
       <c r="B66" s="11" t="s">
+        <v>206</v>
+      </c>
+      <c r="C66" s="11" t="s">
         <v>207</v>
       </c>
-      <c r="C66" s="11" t="s">
+      <c r="D66" s="11" t="s">
         <v>208</v>
       </c>
-      <c r="D66" s="11" t="s">
+      <c r="E66" s="11" t="s">
         <v>209</v>
-      </c>
-      <c r="E66" s="11" t="s">
-        <v>210</v>
       </c>
       <c r="F66" s="11" t="s">
         <v>15</v>
@@ -5010,23 +5499,25 @@
       <c r="H66" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="I66" s="5"/>
-    </row>
-    <row r="67" spans="1:9" ht="128.25">
+      <c r="I66" s="5" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" ht="176">
       <c r="A67" s="10" t="s">
         <v>30</v>
       </c>
       <c r="B67" s="11" t="s">
+        <v>206</v>
+      </c>
+      <c r="C67" s="11" t="s">
         <v>207</v>
       </c>
-      <c r="C67" s="11" t="s">
-        <v>208</v>
-      </c>
       <c r="D67" s="11" t="s">
+        <v>210</v>
+      </c>
+      <c r="E67" s="11" t="s">
         <v>211</v>
-      </c>
-      <c r="E67" s="11" t="s">
-        <v>212</v>
       </c>
       <c r="F67" s="11" t="s">
         <v>15</v>
@@ -5037,23 +5528,25 @@
       <c r="H67" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="I67" s="5"/>
-    </row>
-    <row r="68" spans="1:9" ht="114">
+      <c r="I67" s="5" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" ht="128">
       <c r="A68" s="10" t="s">
         <v>30</v>
       </c>
       <c r="B68" s="11" t="s">
+        <v>206</v>
+      </c>
+      <c r="C68" s="11" t="s">
         <v>207</v>
       </c>
-      <c r="C68" s="11" t="s">
-        <v>208</v>
-      </c>
       <c r="D68" s="11" t="s">
+        <v>212</v>
+      </c>
+      <c r="E68" s="11" t="s">
         <v>213</v>
-      </c>
-      <c r="E68" s="11" t="s">
-        <v>214</v>
       </c>
       <c r="F68" s="11" t="s">
         <v>23</v>
@@ -5064,23 +5557,25 @@
       <c r="H68" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="I68" s="5"/>
-    </row>
-    <row r="69" spans="1:9" ht="42.75">
+      <c r="I68" s="5" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" ht="64">
       <c r="A69" s="10" t="s">
         <v>30</v>
       </c>
       <c r="B69" s="11" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C69" s="11" t="s">
+        <v>214</v>
+      </c>
+      <c r="D69" s="11" t="s">
         <v>215</v>
       </c>
-      <c r="D69" s="11" t="s">
+      <c r="E69" s="11" t="s">
         <v>216</v>
-      </c>
-      <c r="E69" s="11" t="s">
-        <v>217</v>
       </c>
       <c r="F69" s="11" t="s">
         <v>18</v>
@@ -5091,23 +5586,25 @@
       <c r="H69" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="I69" s="5"/>
-    </row>
-    <row r="70" spans="1:9" ht="71.25">
+      <c r="I69" s="5" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" ht="96">
       <c r="A70" s="10" t="s">
         <v>36</v>
       </c>
       <c r="B70" s="11" t="s">
+        <v>217</v>
+      </c>
+      <c r="C70" s="11" t="s">
         <v>218</v>
       </c>
-      <c r="C70" s="11" t="s">
+      <c r="D70" s="11" t="s">
         <v>219</v>
       </c>
-      <c r="D70" s="11" t="s">
+      <c r="E70" s="11" t="s">
         <v>220</v>
-      </c>
-      <c r="E70" s="11" t="s">
-        <v>221</v>
       </c>
       <c r="F70" s="11" t="s">
         <v>15</v>
@@ -5118,23 +5615,25 @@
       <c r="H70" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="I70" s="5"/>
-    </row>
-    <row r="71" spans="1:9" ht="128.25">
+      <c r="I70" s="29" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" ht="144">
       <c r="A71" s="10" t="s">
         <v>30</v>
       </c>
       <c r="B71" s="11" t="s">
+        <v>221</v>
+      </c>
+      <c r="C71" s="11" t="s">
         <v>222</v>
       </c>
-      <c r="C71" s="11" t="s">
+      <c r="D71" s="11" t="s">
         <v>223</v>
       </c>
-      <c r="D71" s="11" t="s">
+      <c r="E71" s="11" t="s">
         <v>224</v>
-      </c>
-      <c r="E71" s="11" t="s">
-        <v>225</v>
       </c>
       <c r="F71" s="11" t="s">
         <v>15</v>
@@ -5145,23 +5644,25 @@
       <c r="H71" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="I71" s="20"/>
-    </row>
-    <row r="72" spans="1:9" ht="128.25">
+      <c r="I71" s="19" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" ht="144">
       <c r="A72" s="10" t="s">
         <v>30</v>
       </c>
       <c r="B72" s="11" t="s">
+        <v>221</v>
+      </c>
+      <c r="C72" s="11" t="s">
         <v>222</v>
       </c>
-      <c r="C72" s="11" t="s">
-        <v>223</v>
-      </c>
       <c r="D72" s="11" t="s">
+        <v>225</v>
+      </c>
+      <c r="E72" s="11" t="s">
         <v>226</v>
-      </c>
-      <c r="E72" s="11" t="s">
-        <v>227</v>
       </c>
       <c r="F72" s="11" t="s">
         <v>18</v>
@@ -5172,25 +5673,25 @@
       <c r="H72" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="I72" s="20" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9" ht="57">
+      <c r="I72" s="19" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" ht="80">
       <c r="A73" s="10" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B73" s="11" t="s">
+        <v>221</v>
+      </c>
+      <c r="C73" s="11" t="s">
         <v>222</v>
       </c>
-      <c r="C73" s="11" t="s">
-        <v>223</v>
-      </c>
       <c r="D73" s="11" t="s">
+        <v>371</v>
+      </c>
+      <c r="E73" s="11" t="s">
         <v>372</v>
-      </c>
-      <c r="E73" s="11" t="s">
-        <v>373</v>
       </c>
       <c r="F73" s="11" t="s">
         <v>18</v>
@@ -5201,54 +5702,54 @@
       <c r="H73" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="I73" s="5" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9" ht="71.25">
-      <c r="A74" s="10" t="s">
-        <v>369</v>
-      </c>
-      <c r="B74" s="11" t="s">
+      <c r="I73" s="21" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" ht="112">
+      <c r="A74" s="24" t="s">
+        <v>368</v>
+      </c>
+      <c r="B74" s="25" t="s">
+        <v>374</v>
+      </c>
+      <c r="C74" s="25" t="s">
         <v>375</v>
       </c>
-      <c r="C74" s="11" t="s">
+      <c r="D74" s="25" t="s">
+        <v>373</v>
+      </c>
+      <c r="E74" s="25" t="s">
         <v>376</v>
       </c>
-      <c r="D74" s="11" t="s">
-        <v>374</v>
-      </c>
-      <c r="E74" s="11" t="s">
-        <v>377</v>
-      </c>
-      <c r="F74" s="11" t="s">
+      <c r="F74" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="G74" s="11" t="s">
+      <c r="G74" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="H74" s="11" t="s">
+      <c r="H74" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="I74" s="5" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9" ht="114">
+      <c r="I74" s="23" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" ht="160">
       <c r="A75" s="10" t="s">
         <v>30</v>
       </c>
       <c r="B75" s="11" t="s">
+        <v>227</v>
+      </c>
+      <c r="C75" s="11" t="s">
         <v>228</v>
       </c>
-      <c r="C75" s="11" t="s">
+      <c r="D75" s="11" t="s">
         <v>229</v>
       </c>
-      <c r="D75" s="11" t="s">
+      <c r="E75" s="11" t="s">
         <v>230</v>
-      </c>
-      <c r="E75" s="11" t="s">
-        <v>231</v>
       </c>
       <c r="F75" s="11" t="s">
         <v>15</v>
@@ -5259,23 +5760,25 @@
       <c r="H75" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="I75" s="5"/>
-    </row>
-    <row r="76" spans="1:9" ht="128.25">
+      <c r="I75" s="5" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" ht="160">
       <c r="A76" s="10" t="s">
         <v>30</v>
       </c>
       <c r="B76" s="11" t="s">
+        <v>227</v>
+      </c>
+      <c r="C76" s="11" t="s">
         <v>228</v>
       </c>
-      <c r="C76" s="11" t="s">
-        <v>229</v>
-      </c>
       <c r="D76" s="11" t="s">
+        <v>231</v>
+      </c>
+      <c r="E76" s="11" t="s">
         <v>232</v>
-      </c>
-      <c r="E76" s="11" t="s">
-        <v>233</v>
       </c>
       <c r="F76" s="11" t="s">
         <v>15</v>
@@ -5286,23 +5789,25 @@
       <c r="H76" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="I76" s="5"/>
-    </row>
-    <row r="77" spans="1:9" ht="114">
+      <c r="I76" s="5" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" ht="144">
       <c r="A77" s="10" t="s">
         <v>30</v>
       </c>
       <c r="B77" s="11" t="s">
+        <v>227</v>
+      </c>
+      <c r="C77" s="11" t="s">
         <v>228</v>
       </c>
-      <c r="C77" s="11" t="s">
-        <v>229</v>
-      </c>
       <c r="D77" s="13" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E77" s="11" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F77" s="11" t="s">
         <v>23</v>
@@ -5313,23 +5818,25 @@
       <c r="H77" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="I77" s="5"/>
-    </row>
-    <row r="78" spans="1:9" ht="28.5">
+      <c r="I77" s="5" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" ht="64">
       <c r="A78" s="10" t="s">
         <v>30</v>
       </c>
       <c r="B78" s="11" t="s">
+        <v>227</v>
+      </c>
+      <c r="C78" s="11" t="s">
         <v>228</v>
       </c>
-      <c r="C78" s="11" t="s">
-        <v>229</v>
-      </c>
       <c r="D78" s="13" t="s">
+        <v>234</v>
+      </c>
+      <c r="E78" s="11" t="s">
         <v>235</v>
-      </c>
-      <c r="E78" s="11" t="s">
-        <v>236</v>
       </c>
       <c r="F78" s="11" t="s">
         <v>18</v>
@@ -5340,23 +5847,25 @@
       <c r="H78" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="I78" s="5"/>
-    </row>
-    <row r="79" spans="1:9" ht="29.25">
+      <c r="I78" s="5" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" ht="64">
       <c r="A79" s="10" t="s">
         <v>36</v>
       </c>
       <c r="B79" s="14" t="s">
+        <v>236</v>
+      </c>
+      <c r="C79" s="14" t="s">
         <v>237</v>
       </c>
-      <c r="C79" s="14" t="s">
+      <c r="D79" s="14" t="s">
         <v>238</v>
       </c>
-      <c r="D79" s="14" t="s">
+      <c r="E79" s="14" t="s">
         <v>239</v>
-      </c>
-      <c r="E79" s="14" t="s">
-        <v>240</v>
       </c>
       <c r="F79" s="11" t="s">
         <v>18</v>
@@ -5367,23 +5876,25 @@
       <c r="H79" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="I79" s="5"/>
-    </row>
-    <row r="80" spans="1:9" ht="28.5">
+      <c r="I79" s="5" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" ht="64">
       <c r="A80" s="10" t="s">
         <v>36</v>
       </c>
       <c r="B80" s="14" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C80" s="14" t="s">
+        <v>240</v>
+      </c>
+      <c r="D80" s="14" t="s">
         <v>241</v>
       </c>
-      <c r="D80" s="14" t="s">
+      <c r="E80" s="14" t="s">
         <v>242</v>
-      </c>
-      <c r="E80" s="14" t="s">
-        <v>243</v>
       </c>
       <c r="F80" s="11" t="s">
         <v>18</v>
@@ -5394,23 +5905,25 @@
       <c r="H80" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="I80" s="5"/>
-    </row>
-    <row r="81" spans="1:9" ht="29.25">
+      <c r="I80" s="5" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" ht="64">
       <c r="A81" s="10" t="s">
         <v>36</v>
       </c>
       <c r="B81" s="14" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C81" s="14" t="s">
+        <v>243</v>
+      </c>
+      <c r="D81" s="14" t="s">
         <v>244</v>
       </c>
-      <c r="D81" s="14" t="s">
+      <c r="E81" s="14" t="s">
         <v>245</v>
-      </c>
-      <c r="E81" s="14" t="s">
-        <v>246</v>
       </c>
       <c r="F81" s="11" t="s">
         <v>18</v>
@@ -5421,23 +5934,25 @@
       <c r="H81" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="I81" s="5"/>
-    </row>
-    <row r="82" spans="1:9" ht="42.75">
+      <c r="I81" s="5" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" ht="64">
       <c r="A82" s="10" t="s">
         <v>30</v>
       </c>
       <c r="B82" s="11" t="s">
+        <v>246</v>
+      </c>
+      <c r="C82" s="11" t="s">
         <v>247</v>
       </c>
-      <c r="C82" s="11" t="s">
+      <c r="D82" s="11" t="s">
         <v>248</v>
       </c>
-      <c r="D82" s="11" t="s">
+      <c r="E82" s="11" t="s">
         <v>249</v>
-      </c>
-      <c r="E82" s="11" t="s">
-        <v>250</v>
       </c>
       <c r="F82" s="11" t="s">
         <v>18</v>
@@ -5448,23 +5963,25 @@
       <c r="H82" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="I82" s="5"/>
-    </row>
-    <row r="83" spans="1:9" ht="57.75">
+      <c r="I82" s="5" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" ht="80">
       <c r="A83" s="10" t="s">
         <v>30</v>
       </c>
       <c r="B83" s="11" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C83" s="11" t="s">
+        <v>250</v>
+      </c>
+      <c r="D83" s="11" t="s">
         <v>251</v>
       </c>
-      <c r="D83" s="11" t="s">
+      <c r="E83" s="11" t="s">
         <v>252</v>
-      </c>
-      <c r="E83" s="11" t="s">
-        <v>253</v>
       </c>
       <c r="F83" s="11" t="s">
         <v>18</v>
@@ -5475,23 +5992,25 @@
       <c r="H83" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="I83" s="5"/>
-    </row>
-    <row r="84" spans="1:9" ht="71.25">
+      <c r="I83" s="5" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" ht="96">
       <c r="A84" s="10" t="s">
         <v>36</v>
       </c>
       <c r="B84" s="11" t="s">
+        <v>253</v>
+      </c>
+      <c r="C84" s="11" t="s">
         <v>254</v>
       </c>
-      <c r="C84" s="11" t="s">
+      <c r="D84" s="11" t="s">
         <v>255</v>
       </c>
-      <c r="D84" s="11" t="s">
+      <c r="E84" s="11" t="s">
         <v>256</v>
-      </c>
-      <c r="E84" s="11" t="s">
-        <v>257</v>
       </c>
       <c r="F84" s="11" t="s">
         <v>15</v>
@@ -5502,23 +6021,25 @@
       <c r="H84" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="I84" s="5"/>
-    </row>
-    <row r="85" spans="1:9" ht="71.25">
+      <c r="I84" s="21" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" ht="144">
       <c r="A85" s="10" t="s">
         <v>36</v>
       </c>
       <c r="B85" s="11" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C85" s="11" t="s">
+        <v>257</v>
+      </c>
+      <c r="D85" s="11" t="s">
         <v>258</v>
       </c>
-      <c r="D85" s="11" t="s">
+      <c r="E85" s="11" t="s">
         <v>259</v>
-      </c>
-      <c r="E85" s="11" t="s">
-        <v>260</v>
       </c>
       <c r="F85" s="11" t="s">
         <v>15</v>
@@ -5529,23 +6050,25 @@
       <c r="H85" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="I85" s="5"/>
-    </row>
-    <row r="86" spans="1:9" ht="213.75">
+      <c r="I85" s="23" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" ht="256">
       <c r="A86" s="10" t="s">
         <v>36</v>
       </c>
       <c r="B86" s="11" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C86" s="11" t="s">
+        <v>260</v>
+      </c>
+      <c r="D86" s="11" t="s">
         <v>261</v>
       </c>
-      <c r="D86" s="11" t="s">
+      <c r="E86" s="11" t="s">
         <v>262</v>
-      </c>
-      <c r="E86" s="11" t="s">
-        <v>263</v>
       </c>
       <c r="F86" s="11" t="s">
         <v>15</v>
@@ -5556,23 +6079,25 @@
       <c r="H86" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="I86" s="5"/>
-    </row>
-    <row r="87" spans="1:9" ht="228">
+      <c r="I86" s="23" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" ht="288">
       <c r="A87" s="10" t="s">
         <v>36</v>
       </c>
       <c r="B87" s="11" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C87" s="11" t="s">
+        <v>263</v>
+      </c>
+      <c r="D87" s="11" t="s">
         <v>264</v>
       </c>
-      <c r="D87" s="11" t="s">
+      <c r="E87" s="11" t="s">
         <v>265</v>
-      </c>
-      <c r="E87" s="11" t="s">
-        <v>266</v>
       </c>
       <c r="F87" s="11" t="s">
         <v>15</v>
@@ -5583,23 +6108,25 @@
       <c r="H87" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="I87" s="5"/>
-    </row>
-    <row r="88" spans="1:9" ht="185.25">
+      <c r="I87" s="23" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" ht="256">
       <c r="A88" s="10" t="s">
         <v>36</v>
       </c>
       <c r="B88" s="11" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C88" s="11" t="s">
+        <v>266</v>
+      </c>
+      <c r="D88" s="11" t="s">
         <v>267</v>
       </c>
-      <c r="D88" s="11" t="s">
+      <c r="E88" s="11" t="s">
         <v>268</v>
-      </c>
-      <c r="E88" s="11" t="s">
-        <v>269</v>
       </c>
       <c r="F88" s="11" t="s">
         <v>15</v>
@@ -5610,23 +6137,25 @@
       <c r="H88" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="I88" s="5"/>
-    </row>
-    <row r="89" spans="1:9" ht="128.25">
+      <c r="I88" s="23" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" ht="176">
       <c r="A89" s="10" t="s">
         <v>36</v>
       </c>
       <c r="B89" s="11" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C89" s="11" t="s">
+        <v>269</v>
+      </c>
+      <c r="D89" s="11" t="s">
         <v>270</v>
       </c>
-      <c r="D89" s="11" t="s">
+      <c r="E89" s="11" t="s">
         <v>271</v>
-      </c>
-      <c r="E89" s="11" t="s">
-        <v>272</v>
       </c>
       <c r="F89" s="11" t="s">
         <v>15</v>
@@ -5637,23 +6166,25 @@
       <c r="H89" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="I89" s="5"/>
-    </row>
-    <row r="90" spans="1:9" ht="156.75">
+      <c r="I89" s="23" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" ht="208">
       <c r="A90" s="10" t="s">
         <v>36</v>
       </c>
       <c r="B90" s="11" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C90" s="11" t="s">
+        <v>272</v>
+      </c>
+      <c r="D90" s="11" t="s">
         <v>273</v>
       </c>
-      <c r="D90" s="11" t="s">
+      <c r="E90" s="11" t="s">
         <v>274</v>
-      </c>
-      <c r="E90" s="11" t="s">
-        <v>275</v>
       </c>
       <c r="F90" s="11" t="s">
         <v>15</v>
@@ -5664,23 +6195,25 @@
       <c r="H90" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="I90" s="5"/>
-    </row>
-    <row r="91" spans="1:9" ht="171">
+      <c r="I90" s="23" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" ht="224">
       <c r="A91" s="10" t="s">
         <v>36</v>
       </c>
       <c r="B91" s="11" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C91" s="11" t="s">
+        <v>275</v>
+      </c>
+      <c r="D91" s="11" t="s">
         <v>276</v>
       </c>
-      <c r="D91" s="11" t="s">
+      <c r="E91" s="11" t="s">
         <v>277</v>
-      </c>
-      <c r="E91" s="11" t="s">
-        <v>278</v>
       </c>
       <c r="F91" s="11" t="s">
         <v>15</v>
@@ -5691,23 +6224,25 @@
       <c r="H91" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="I91" s="5"/>
-    </row>
-    <row r="92" spans="1:9" ht="142.5">
+      <c r="I91" s="23" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" ht="192">
       <c r="A92" s="10" t="s">
         <v>36</v>
       </c>
       <c r="B92" s="11" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C92" s="11" t="s">
+        <v>278</v>
+      </c>
+      <c r="D92" s="11" t="s">
         <v>279</v>
       </c>
-      <c r="D92" s="11" t="s">
+      <c r="E92" s="11" t="s">
         <v>280</v>
-      </c>
-      <c r="E92" s="11" t="s">
-        <v>281</v>
       </c>
       <c r="F92" s="11" t="s">
         <v>15</v>
@@ -5718,23 +6253,25 @@
       <c r="H92" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="I92" s="5"/>
-    </row>
-    <row r="93" spans="1:9" ht="213.75">
+      <c r="I92" s="23" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" ht="288">
       <c r="A93" s="10" t="s">
         <v>36</v>
       </c>
       <c r="B93" s="11" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C93" s="11" t="s">
+        <v>281</v>
+      </c>
+      <c r="D93" s="11" t="s">
         <v>282</v>
       </c>
-      <c r="D93" s="11" t="s">
+      <c r="E93" s="11" t="s">
         <v>283</v>
-      </c>
-      <c r="E93" s="11" t="s">
-        <v>284</v>
       </c>
       <c r="F93" s="11" t="s">
         <v>15</v>
@@ -5745,23 +6282,25 @@
       <c r="H93" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="I93" s="5"/>
-    </row>
-    <row r="94" spans="1:9" ht="228">
+      <c r="I93" s="23" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" ht="288">
       <c r="A94" s="10" t="s">
         <v>36</v>
       </c>
       <c r="B94" s="11" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C94" s="11" t="s">
+        <v>284</v>
+      </c>
+      <c r="D94" s="11" t="s">
         <v>285</v>
       </c>
-      <c r="D94" s="11" t="s">
+      <c r="E94" s="11" t="s">
         <v>286</v>
-      </c>
-      <c r="E94" s="11" t="s">
-        <v>287</v>
       </c>
       <c r="F94" s="11" t="s">
         <v>15</v>
@@ -5772,23 +6311,25 @@
       <c r="H94" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="I94" s="5"/>
-    </row>
-    <row r="95" spans="1:9" ht="156.75">
+      <c r="I94" s="23" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" ht="208">
       <c r="A95" s="10" t="s">
         <v>36</v>
       </c>
       <c r="B95" s="11" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C95" s="11" t="s">
+        <v>287</v>
+      </c>
+      <c r="D95" s="11" t="s">
         <v>288</v>
       </c>
-      <c r="D95" s="11" t="s">
+      <c r="E95" s="11" t="s">
         <v>289</v>
-      </c>
-      <c r="E95" s="11" t="s">
-        <v>290</v>
       </c>
       <c r="F95" s="11" t="s">
         <v>15</v>
@@ -5799,23 +6340,25 @@
       <c r="H95" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="I95" s="5"/>
-    </row>
-    <row r="96" spans="1:9" ht="142.5">
+      <c r="I95" s="23" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" ht="192">
       <c r="A96" s="10" t="s">
         <v>36</v>
       </c>
       <c r="B96" s="11" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C96" s="11" t="s">
+        <v>290</v>
+      </c>
+      <c r="D96" s="11" t="s">
         <v>291</v>
       </c>
-      <c r="D96" s="11" t="s">
+      <c r="E96" s="11" t="s">
         <v>292</v>
-      </c>
-      <c r="E96" s="11" t="s">
-        <v>293</v>
       </c>
       <c r="F96" s="11" t="s">
         <v>15</v>
@@ -5826,23 +6369,25 @@
       <c r="H96" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="I96" s="5"/>
-    </row>
-    <row r="97" spans="1:9" ht="156.75">
+      <c r="I96" s="23" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" ht="208">
       <c r="A97" s="10" t="s">
         <v>36</v>
       </c>
       <c r="B97" s="11" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C97" s="11" t="s">
+        <v>293</v>
+      </c>
+      <c r="D97" s="11" t="s">
         <v>294</v>
       </c>
-      <c r="D97" s="11" t="s">
+      <c r="E97" s="11" t="s">
         <v>295</v>
-      </c>
-      <c r="E97" s="11" t="s">
-        <v>296</v>
       </c>
       <c r="F97" s="11" t="s">
         <v>15</v>
@@ -5853,23 +6398,25 @@
       <c r="H97" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="I97" s="5"/>
-    </row>
-    <row r="98" spans="1:9" ht="213.75">
+      <c r="I97" s="23" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" ht="256">
       <c r="A98" s="10" t="s">
         <v>36</v>
       </c>
       <c r="B98" s="11" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C98" s="11" t="s">
+        <v>296</v>
+      </c>
+      <c r="D98" s="11" t="s">
         <v>297</v>
       </c>
-      <c r="D98" s="11" t="s">
+      <c r="E98" s="11" t="s">
         <v>298</v>
-      </c>
-      <c r="E98" s="11" t="s">
-        <v>299</v>
       </c>
       <c r="F98" s="11" t="s">
         <v>15</v>
@@ -5880,23 +6427,25 @@
       <c r="H98" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="I98" s="5"/>
-    </row>
-    <row r="99" spans="1:9" ht="29.25">
+      <c r="I98" s="23" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" ht="48">
       <c r="A99" s="10" t="s">
         <v>39</v>
       </c>
       <c r="B99" s="11" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C99" s="11" t="s">
+        <v>299</v>
+      </c>
+      <c r="D99" s="11" t="s">
         <v>300</v>
       </c>
-      <c r="D99" s="11" t="s">
+      <c r="E99" s="11" t="s">
         <v>301</v>
-      </c>
-      <c r="E99" s="11" t="s">
-        <v>302</v>
       </c>
       <c r="F99" s="11" t="s">
         <v>15</v>
@@ -5907,23 +6456,25 @@
       <c r="H99" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="I99" s="5"/>
-    </row>
-    <row r="100" spans="1:9" ht="29.25">
+      <c r="I99" s="21" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" ht="48">
       <c r="A100" s="10" t="s">
         <v>39</v>
       </c>
       <c r="B100" s="11" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C100" s="11" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D100" s="11" t="s">
+        <v>300</v>
+      </c>
+      <c r="E100" s="11" t="s">
         <v>301</v>
-      </c>
-      <c r="E100" s="11" t="s">
-        <v>302</v>
       </c>
       <c r="F100" s="11" t="s">
         <v>15</v>
@@ -5934,23 +6485,25 @@
       <c r="H100" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="I100" s="5"/>
-    </row>
-    <row r="101" spans="1:9" ht="29.25">
+      <c r="I100" s="21" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" ht="48">
       <c r="A101" s="10" t="s">
         <v>39</v>
       </c>
       <c r="B101" s="11" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C101" s="11" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D101" s="11" t="s">
+        <v>300</v>
+      </c>
+      <c r="E101" s="11" t="s">
         <v>301</v>
-      </c>
-      <c r="E101" s="11" t="s">
-        <v>302</v>
       </c>
       <c r="F101" s="11" t="s">
         <v>15</v>
@@ -5961,23 +6514,25 @@
       <c r="H101" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="I101" s="5"/>
-    </row>
-    <row r="102" spans="1:9" ht="29.25">
+      <c r="I101" s="21" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" ht="48">
       <c r="A102" s="10" t="s">
         <v>39</v>
       </c>
       <c r="B102" s="11" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C102" s="11" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D102" s="11" t="s">
+        <v>300</v>
+      </c>
+      <c r="E102" s="11" t="s">
         <v>301</v>
-      </c>
-      <c r="E102" s="11" t="s">
-        <v>302</v>
       </c>
       <c r="F102" s="11" t="s">
         <v>15</v>
@@ -5988,23 +6543,25 @@
       <c r="H102" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="I102" s="5"/>
-    </row>
-    <row r="103" spans="1:9" ht="29.25">
+      <c r="I102" s="21" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" ht="48">
       <c r="A103" s="10" t="s">
         <v>39</v>
       </c>
       <c r="B103" s="11" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C103" s="11" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D103" s="11" t="s">
+        <v>300</v>
+      </c>
+      <c r="E103" s="11" t="s">
         <v>301</v>
-      </c>
-      <c r="E103" s="11" t="s">
-        <v>302</v>
       </c>
       <c r="F103" s="11" t="s">
         <v>15</v>
@@ -6015,23 +6572,25 @@
       <c r="H103" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="I103" s="5"/>
-    </row>
-    <row r="104" spans="1:9" ht="29.25">
+      <c r="I103" s="21" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" ht="48">
       <c r="A104" s="10" t="s">
         <v>39</v>
       </c>
       <c r="B104" s="11" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C104" s="11" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D104" s="11" t="s">
+        <v>300</v>
+      </c>
+      <c r="E104" s="11" t="s">
         <v>301</v>
-      </c>
-      <c r="E104" s="11" t="s">
-        <v>302</v>
       </c>
       <c r="F104" s="11" t="s">
         <v>15</v>
@@ -6042,23 +6601,25 @@
       <c r="H104" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="I104" s="5"/>
-    </row>
-    <row r="105" spans="1:9" ht="29.25">
+      <c r="I104" s="21" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" ht="48">
       <c r="A105" s="10" t="s">
         <v>39</v>
       </c>
       <c r="B105" s="11" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C105" s="11" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D105" s="11" t="s">
+        <v>300</v>
+      </c>
+      <c r="E105" s="11" t="s">
         <v>301</v>
-      </c>
-      <c r="E105" s="11" t="s">
-        <v>302</v>
       </c>
       <c r="F105" s="11" t="s">
         <v>15</v>
@@ -6069,23 +6630,25 @@
       <c r="H105" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="I105" s="5"/>
-    </row>
-    <row r="106" spans="1:9" ht="29.25">
+      <c r="I105" s="21" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" ht="80">
       <c r="A106" s="10" t="s">
         <v>39</v>
       </c>
       <c r="B106" s="11" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C106" s="11" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D106" s="11" t="s">
+        <v>300</v>
+      </c>
+      <c r="E106" s="11" t="s">
         <v>301</v>
-      </c>
-      <c r="E106" s="11" t="s">
-        <v>302</v>
       </c>
       <c r="F106" s="11" t="s">
         <v>15</v>
@@ -6096,23 +6659,25 @@
       <c r="H106" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="I106" s="5"/>
-    </row>
-    <row r="107" spans="1:9" ht="29.25">
+      <c r="I106" s="21" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" ht="48">
       <c r="A107" s="10" t="s">
         <v>39</v>
       </c>
       <c r="B107" s="11" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C107" s="11" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D107" s="11" t="s">
+        <v>300</v>
+      </c>
+      <c r="E107" s="11" t="s">
         <v>301</v>
-      </c>
-      <c r="E107" s="11" t="s">
-        <v>302</v>
       </c>
       <c r="F107" s="11" t="s">
         <v>15</v>
@@ -6123,23 +6688,25 @@
       <c r="H107" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="I107" s="5"/>
-    </row>
-    <row r="108" spans="1:9" ht="29.25">
+      <c r="I107" s="23" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" ht="48">
       <c r="A108" s="10" t="s">
         <v>39</v>
       </c>
       <c r="B108" s="11" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C108" s="11" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D108" s="11" t="s">
+        <v>300</v>
+      </c>
+      <c r="E108" s="11" t="s">
         <v>301</v>
-      </c>
-      <c r="E108" s="11" t="s">
-        <v>302</v>
       </c>
       <c r="F108" s="11" t="s">
         <v>15</v>
@@ -6150,23 +6717,25 @@
       <c r="H108" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="I108" s="5"/>
-    </row>
-    <row r="109" spans="1:9" ht="29.25">
+      <c r="I108" s="23" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" ht="48">
       <c r="A109" s="10" t="s">
         <v>39</v>
       </c>
       <c r="B109" s="11" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C109" s="11" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D109" s="11" t="s">
+        <v>300</v>
+      </c>
+      <c r="E109" s="11" t="s">
         <v>301</v>
-      </c>
-      <c r="E109" s="11" t="s">
-        <v>302</v>
       </c>
       <c r="F109" s="11" t="s">
         <v>15</v>
@@ -6177,23 +6746,25 @@
       <c r="H109" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="I109" s="5"/>
-    </row>
-    <row r="110" spans="1:9" ht="29.25">
+      <c r="I109" s="23" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" ht="48">
       <c r="A110" s="10" t="s">
         <v>39</v>
       </c>
       <c r="B110" s="11" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C110" s="11" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D110" s="11" t="s">
+        <v>300</v>
+      </c>
+      <c r="E110" s="11" t="s">
         <v>301</v>
-      </c>
-      <c r="E110" s="11" t="s">
-        <v>302</v>
       </c>
       <c r="F110" s="11" t="s">
         <v>15</v>
@@ -6204,23 +6775,25 @@
       <c r="H110" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="I110" s="5"/>
-    </row>
-    <row r="111" spans="1:9" ht="29.25">
+      <c r="I110" s="23" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" ht="48">
       <c r="A111" s="10" t="s">
         <v>39</v>
       </c>
       <c r="B111" s="11" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C111" s="11" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D111" s="11" t="s">
+        <v>300</v>
+      </c>
+      <c r="E111" s="11" t="s">
         <v>301</v>
-      </c>
-      <c r="E111" s="11" t="s">
-        <v>302</v>
       </c>
       <c r="F111" s="11" t="s">
         <v>15</v>
@@ -6231,23 +6804,25 @@
       <c r="H111" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="I111" s="5"/>
-    </row>
-    <row r="112" spans="1:9" ht="29.25">
+      <c r="I111" s="23" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" ht="48">
       <c r="A112" s="10" t="s">
         <v>39</v>
       </c>
       <c r="B112" s="11" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C112" s="11" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D112" s="11" t="s">
+        <v>300</v>
+      </c>
+      <c r="E112" s="11" t="s">
         <v>301</v>
-      </c>
-      <c r="E112" s="11" t="s">
-        <v>302</v>
       </c>
       <c r="F112" s="11" t="s">
         <v>15</v>
@@ -6258,23 +6833,25 @@
       <c r="H112" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="I112" s="5"/>
-    </row>
-    <row r="113" spans="1:9" ht="29.25">
+      <c r="I112" s="23" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" ht="48">
       <c r="A113" s="10" t="s">
         <v>39</v>
       </c>
       <c r="B113" s="11" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C113" s="11" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D113" s="11" t="s">
+        <v>300</v>
+      </c>
+      <c r="E113" s="11" t="s">
         <v>301</v>
-      </c>
-      <c r="E113" s="11" t="s">
-        <v>302</v>
       </c>
       <c r="F113" s="11" t="s">
         <v>15</v>
@@ -6285,23 +6862,25 @@
       <c r="H113" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="I113" s="5"/>
-    </row>
-    <row r="114" spans="1:9" ht="29.25">
+      <c r="I113" s="23" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" ht="48">
       <c r="A114" s="10" t="s">
         <v>39</v>
       </c>
       <c r="B114" s="11" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C114" s="11" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D114" s="11" t="s">
+        <v>300</v>
+      </c>
+      <c r="E114" s="11" t="s">
         <v>301</v>
-      </c>
-      <c r="E114" s="11" t="s">
-        <v>302</v>
       </c>
       <c r="F114" s="11" t="s">
         <v>15</v>
@@ -6312,23 +6891,25 @@
       <c r="H114" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="I114" s="5"/>
-    </row>
-    <row r="115" spans="1:9" ht="29.25">
+      <c r="I114" s="23" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" ht="48">
       <c r="A115" s="10" t="s">
         <v>39</v>
       </c>
       <c r="B115" s="11" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C115" s="11" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D115" s="11" t="s">
+        <v>300</v>
+      </c>
+      <c r="E115" s="11" t="s">
         <v>301</v>
-      </c>
-      <c r="E115" s="11" t="s">
-        <v>302</v>
       </c>
       <c r="F115" s="11" t="s">
         <v>15</v>
@@ -6339,23 +6920,25 @@
       <c r="H115" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="I115" s="5"/>
-    </row>
-    <row r="116" spans="1:9" ht="29.25">
+      <c r="I115" s="23" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" ht="48">
       <c r="A116" s="10" t="s">
         <v>39</v>
       </c>
       <c r="B116" s="11" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C116" s="11" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D116" s="11" t="s">
+        <v>300</v>
+      </c>
+      <c r="E116" s="11" t="s">
         <v>301</v>
-      </c>
-      <c r="E116" s="11" t="s">
-        <v>302</v>
       </c>
       <c r="F116" s="11" t="s">
         <v>15</v>
@@ -6366,23 +6949,25 @@
       <c r="H116" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="I116" s="5"/>
-    </row>
-    <row r="117" spans="1:9" ht="29.25">
+      <c r="I116" s="23" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" ht="48">
       <c r="A117" s="10" t="s">
         <v>39</v>
       </c>
       <c r="B117" s="11" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C117" s="11" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D117" s="11" t="s">
+        <v>300</v>
+      </c>
+      <c r="E117" s="11" t="s">
         <v>301</v>
-      </c>
-      <c r="E117" s="11" t="s">
-        <v>302</v>
       </c>
       <c r="F117" s="11" t="s">
         <v>15</v>
@@ -6393,23 +6978,25 @@
       <c r="H117" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="I117" s="5"/>
-    </row>
-    <row r="118" spans="1:9" ht="29.25">
+      <c r="I117" s="23" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" ht="48">
       <c r="A118" s="10" t="s">
         <v>39</v>
       </c>
       <c r="B118" s="11" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C118" s="11" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D118" s="11" t="s">
+        <v>300</v>
+      </c>
+      <c r="E118" s="11" t="s">
         <v>301</v>
-      </c>
-      <c r="E118" s="11" t="s">
-        <v>302</v>
       </c>
       <c r="F118" s="11" t="s">
         <v>15</v>
@@ -6420,23 +7007,25 @@
       <c r="H118" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="I118" s="5"/>
-    </row>
-    <row r="119" spans="1:9" ht="29.25">
+      <c r="I118" s="23" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" ht="80">
       <c r="A119" s="10" t="s">
         <v>39</v>
       </c>
       <c r="B119" s="11" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C119" s="11" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D119" s="11" t="s">
+        <v>300</v>
+      </c>
+      <c r="E119" s="11" t="s">
         <v>301</v>
-      </c>
-      <c r="E119" s="11" t="s">
-        <v>302</v>
       </c>
       <c r="F119" s="11" t="s">
         <v>15</v>
@@ -6447,23 +7036,25 @@
       <c r="H119" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="I119" s="5"/>
-    </row>
-    <row r="120" spans="1:9" ht="29.25">
+      <c r="I119" s="21" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" ht="48">
       <c r="A120" s="10" t="s">
         <v>39</v>
       </c>
       <c r="B120" s="11" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C120" s="11" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D120" s="11" t="s">
+        <v>300</v>
+      </c>
+      <c r="E120" s="11" t="s">
         <v>301</v>
-      </c>
-      <c r="E120" s="11" t="s">
-        <v>302</v>
       </c>
       <c r="F120" s="11" t="s">
         <v>15</v>
@@ -6474,23 +7065,25 @@
       <c r="H120" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="I120" s="5"/>
-    </row>
-    <row r="121" spans="1:9" ht="29.25">
+      <c r="I120" s="21" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" ht="80">
       <c r="A121" s="10" t="s">
         <v>39</v>
       </c>
       <c r="B121" s="11" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C121" s="11" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D121" s="11" t="s">
+        <v>300</v>
+      </c>
+      <c r="E121" s="11" t="s">
         <v>301</v>
-      </c>
-      <c r="E121" s="11" t="s">
-        <v>302</v>
       </c>
       <c r="F121" s="11" t="s">
         <v>15</v>
@@ -6501,23 +7094,25 @@
       <c r="H121" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="I121" s="5"/>
-    </row>
-    <row r="122" spans="1:9" ht="29.25">
+      <c r="I121" s="21" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" ht="48">
       <c r="A122" s="10" t="s">
         <v>39</v>
       </c>
       <c r="B122" s="11" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C122" s="11" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D122" s="11" t="s">
+        <v>300</v>
+      </c>
+      <c r="E122" s="11" t="s">
         <v>301</v>
-      </c>
-      <c r="E122" s="11" t="s">
-        <v>302</v>
       </c>
       <c r="F122" s="11" t="s">
         <v>15</v>
@@ -6528,23 +7123,25 @@
       <c r="H122" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="I122" s="5"/>
-    </row>
-    <row r="123" spans="1:9" ht="29.25">
+      <c r="I122" s="21" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" ht="48">
       <c r="A123" s="10" t="s">
         <v>39</v>
       </c>
       <c r="B123" s="11" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C123" s="11" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D123" s="11" t="s">
+        <v>300</v>
+      </c>
+      <c r="E123" s="11" t="s">
         <v>301</v>
-      </c>
-      <c r="E123" s="11" t="s">
-        <v>302</v>
       </c>
       <c r="F123" s="11" t="s">
         <v>15</v>
@@ -6555,23 +7152,25 @@
       <c r="H123" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="I123" s="5"/>
-    </row>
-    <row r="124" spans="1:9" ht="29.25">
+      <c r="I123" s="21" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9" ht="48">
       <c r="A124" s="10" t="s">
         <v>39</v>
       </c>
       <c r="B124" s="11" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C124" s="11" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D124" s="11" t="s">
+        <v>300</v>
+      </c>
+      <c r="E124" s="11" t="s">
         <v>301</v>
-      </c>
-      <c r="E124" s="11" t="s">
-        <v>302</v>
       </c>
       <c r="F124" s="11" t="s">
         <v>15</v>
@@ -6582,23 +7181,25 @@
       <c r="H124" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="I124" s="5"/>
-    </row>
-    <row r="125" spans="1:9" ht="29.25">
+      <c r="I124" s="21" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9" ht="48">
       <c r="A125" s="10" t="s">
         <v>39</v>
       </c>
       <c r="B125" s="11" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C125" s="11" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D125" s="11" t="s">
+        <v>300</v>
+      </c>
+      <c r="E125" s="11" t="s">
         <v>301</v>
-      </c>
-      <c r="E125" s="11" t="s">
-        <v>302</v>
       </c>
       <c r="F125" s="11" t="s">
         <v>15</v>
@@ -6609,23 +7210,25 @@
       <c r="H125" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="I125" s="5"/>
-    </row>
-    <row r="126" spans="1:9" ht="29.25">
+      <c r="I125" s="23" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9" ht="48">
       <c r="A126" s="10" t="s">
         <v>39</v>
       </c>
       <c r="B126" s="11" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C126" s="11" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D126" s="11" t="s">
+        <v>300</v>
+      </c>
+      <c r="E126" s="11" t="s">
         <v>301</v>
-      </c>
-      <c r="E126" s="11" t="s">
-        <v>302</v>
       </c>
       <c r="F126" s="11" t="s">
         <v>15</v>
@@ -6636,23 +7239,25 @@
       <c r="H126" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="I126" s="5"/>
-    </row>
-    <row r="127" spans="1:9" ht="29.25">
+      <c r="I126" s="23" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9" ht="48">
       <c r="A127" s="10" t="s">
         <v>39</v>
       </c>
       <c r="B127" s="11" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C127" s="11" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D127" s="11" t="s">
+        <v>300</v>
+      </c>
+      <c r="E127" s="11" t="s">
         <v>301</v>
-      </c>
-      <c r="E127" s="11" t="s">
-        <v>302</v>
       </c>
       <c r="F127" s="11" t="s">
         <v>15</v>
@@ -6663,23 +7268,25 @@
       <c r="H127" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="I127" s="5"/>
-    </row>
-    <row r="128" spans="1:9" ht="29.25">
+      <c r="I127" s="23" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9" ht="48">
       <c r="A128" s="10" t="s">
         <v>39</v>
       </c>
       <c r="B128" s="11" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C128" s="11" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D128" s="11" t="s">
+        <v>300</v>
+      </c>
+      <c r="E128" s="11" t="s">
         <v>301</v>
-      </c>
-      <c r="E128" s="11" t="s">
-        <v>302</v>
       </c>
       <c r="F128" s="11" t="s">
         <v>15</v>
@@ -6690,23 +7297,25 @@
       <c r="H128" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="I128" s="5"/>
-    </row>
-    <row r="129" spans="1:9" ht="29.25">
+      <c r="I128" s="23" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9" ht="48">
       <c r="A129" s="10" t="s">
         <v>39</v>
       </c>
       <c r="B129" s="11" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C129" s="11" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D129" s="11" t="s">
+        <v>300</v>
+      </c>
+      <c r="E129" s="11" t="s">
         <v>301</v>
-      </c>
-      <c r="E129" s="11" t="s">
-        <v>302</v>
       </c>
       <c r="F129" s="11" t="s">
         <v>15</v>
@@ -6717,23 +7326,25 @@
       <c r="H129" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="I129" s="5"/>
-    </row>
-    <row r="130" spans="1:9" ht="29.25">
+      <c r="I129" s="21" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9" ht="48">
       <c r="A130" s="10" t="s">
         <v>39</v>
       </c>
       <c r="B130" s="11" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C130" s="11" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D130" s="11" t="s">
+        <v>300</v>
+      </c>
+      <c r="E130" s="11" t="s">
         <v>301</v>
-      </c>
-      <c r="E130" s="11" t="s">
-        <v>302</v>
       </c>
       <c r="F130" s="11" t="s">
         <v>15</v>
@@ -6744,23 +7355,25 @@
       <c r="H130" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="I130" s="5"/>
-    </row>
-    <row r="131" spans="1:9" ht="29.25">
+      <c r="I130" s="21" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9" ht="48">
       <c r="A131" s="10" t="s">
         <v>39</v>
       </c>
       <c r="B131" s="11" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C131" s="11" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D131" s="11" t="s">
+        <v>300</v>
+      </c>
+      <c r="E131" s="11" t="s">
         <v>301</v>
-      </c>
-      <c r="E131" s="11" t="s">
-        <v>302</v>
       </c>
       <c r="F131" s="11" t="s">
         <v>15</v>
@@ -6771,23 +7384,25 @@
       <c r="H131" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="I131" s="5"/>
-    </row>
-    <row r="132" spans="1:9" ht="29.25">
+      <c r="I131" s="21" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9" ht="48">
       <c r="A132" s="10" t="s">
         <v>39</v>
       </c>
       <c r="B132" s="11" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C132" s="11" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D132" s="11" t="s">
+        <v>300</v>
+      </c>
+      <c r="E132" s="11" t="s">
         <v>301</v>
-      </c>
-      <c r="E132" s="11" t="s">
-        <v>302</v>
       </c>
       <c r="F132" s="11" t="s">
         <v>15</v>
@@ -6798,23 +7413,25 @@
       <c r="H132" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="I132" s="5"/>
-    </row>
-    <row r="133" spans="1:9" ht="29.25">
+      <c r="I132" s="21" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9" ht="48">
       <c r="A133" s="10" t="s">
         <v>39</v>
       </c>
       <c r="B133" s="11" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C133" s="11" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D133" s="11" t="s">
+        <v>300</v>
+      </c>
+      <c r="E133" s="11" t="s">
         <v>301</v>
-      </c>
-      <c r="E133" s="11" t="s">
-        <v>302</v>
       </c>
       <c r="F133" s="11" t="s">
         <v>15</v>
@@ -6825,23 +7442,25 @@
       <c r="H133" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="I133" s="5"/>
-    </row>
-    <row r="134" spans="1:9" ht="29.25">
+      <c r="I133" s="21" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9" ht="80">
       <c r="A134" s="10" t="s">
         <v>39</v>
       </c>
       <c r="B134" s="11" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C134" s="11" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D134" s="11" t="s">
+        <v>300</v>
+      </c>
+      <c r="E134" s="11" t="s">
         <v>301</v>
-      </c>
-      <c r="E134" s="11" t="s">
-        <v>302</v>
       </c>
       <c r="F134" s="11" t="s">
         <v>15</v>
@@ -6852,23 +7471,25 @@
       <c r="H134" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="I134" s="5"/>
-    </row>
-    <row r="135" spans="1:9" ht="29.25">
+      <c r="I134" s="21" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9" ht="48">
       <c r="A135" s="10" t="s">
         <v>39</v>
       </c>
       <c r="B135" s="11" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C135" s="11" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D135" s="11" t="s">
+        <v>300</v>
+      </c>
+      <c r="E135" s="11" t="s">
         <v>301</v>
-      </c>
-      <c r="E135" s="11" t="s">
-        <v>302</v>
       </c>
       <c r="F135" s="11" t="s">
         <v>15</v>
@@ -6879,23 +7500,25 @@
       <c r="H135" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="I135" s="5"/>
-    </row>
-    <row r="136" spans="1:9" ht="29.25">
+      <c r="I135" s="21" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9" ht="80">
       <c r="A136" s="10" t="s">
         <v>39</v>
       </c>
       <c r="B136" s="11" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C136" s="11" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D136" s="11" t="s">
+        <v>300</v>
+      </c>
+      <c r="E136" s="11" t="s">
         <v>301</v>
-      </c>
-      <c r="E136" s="11" t="s">
-        <v>302</v>
       </c>
       <c r="F136" s="11" t="s">
         <v>15</v>
@@ -6906,23 +7529,25 @@
       <c r="H136" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="I136" s="5"/>
-    </row>
-    <row r="137" spans="1:9" ht="43.5">
+      <c r="I136" s="21" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9" ht="48">
       <c r="A137" s="10" t="s">
         <v>39</v>
       </c>
       <c r="B137" s="11" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C137" s="11" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D137" s="11" t="s">
+        <v>300</v>
+      </c>
+      <c r="E137" s="11" t="s">
         <v>301</v>
-      </c>
-      <c r="E137" s="11" t="s">
-        <v>302</v>
       </c>
       <c r="F137" s="11" t="s">
         <v>15</v>
@@ -6933,23 +7558,25 @@
       <c r="H137" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="I137" s="5"/>
-    </row>
-    <row r="138" spans="1:9" ht="43.5">
+      <c r="I137" s="20" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9" ht="48">
       <c r="A138" s="10" t="s">
         <v>39</v>
       </c>
       <c r="B138" s="11" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C138" s="11" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D138" s="11" t="s">
+        <v>300</v>
+      </c>
+      <c r="E138" s="11" t="s">
         <v>301</v>
-      </c>
-      <c r="E138" s="11" t="s">
-        <v>302</v>
       </c>
       <c r="F138" s="11" t="s">
         <v>15</v>
@@ -6960,23 +7587,25 @@
       <c r="H138" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="I138" s="5"/>
-    </row>
-    <row r="139" spans="1:9" ht="43.5">
+      <c r="I138" s="20" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9" ht="48">
       <c r="A139" s="10" t="s">
         <v>39</v>
       </c>
       <c r="B139" s="11" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C139" s="11" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D139" s="11" t="s">
+        <v>300</v>
+      </c>
+      <c r="E139" s="11" t="s">
         <v>301</v>
-      </c>
-      <c r="E139" s="11" t="s">
-        <v>302</v>
       </c>
       <c r="F139" s="11" t="s">
         <v>15</v>
@@ -6987,23 +7616,25 @@
       <c r="H139" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="I139" s="5"/>
-    </row>
-    <row r="140" spans="1:9" ht="43.5">
+      <c r="I139" s="20" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9" ht="48">
       <c r="A140" s="10" t="s">
         <v>39</v>
       </c>
       <c r="B140" s="11" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C140" s="11" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D140" s="11" t="s">
+        <v>300</v>
+      </c>
+      <c r="E140" s="11" t="s">
         <v>301</v>
-      </c>
-      <c r="E140" s="11" t="s">
-        <v>302</v>
       </c>
       <c r="F140" s="11" t="s">
         <v>15</v>
@@ -7014,23 +7645,25 @@
       <c r="H140" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="I140" s="5"/>
-    </row>
-    <row r="141" spans="1:9" ht="29.25">
+      <c r="I140" s="20" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9" ht="32">
       <c r="A141" s="10" t="s">
         <v>39</v>
       </c>
       <c r="B141" s="11" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C141" s="11" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D141" s="11" t="s">
+        <v>300</v>
+      </c>
+      <c r="E141" s="11" t="s">
         <v>301</v>
-      </c>
-      <c r="E141" s="11" t="s">
-        <v>302</v>
       </c>
       <c r="F141" s="11" t="s">
         <v>15</v>
@@ -7041,23 +7674,25 @@
       <c r="H141" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="I141" s="5"/>
-    </row>
-    <row r="142" spans="1:9" ht="28.5">
+      <c r="I141" s="20" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9" ht="32">
       <c r="A142" s="10" t="s">
         <v>39</v>
       </c>
       <c r="B142" s="11" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C142" s="11" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D142" s="11" t="s">
+        <v>300</v>
+      </c>
+      <c r="E142" s="11" t="s">
         <v>301</v>
-      </c>
-      <c r="E142" s="11" t="s">
-        <v>302</v>
       </c>
       <c r="F142" s="11" t="s">
         <v>15</v>
@@ -7068,23 +7703,25 @@
       <c r="H142" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="I142" s="5"/>
-    </row>
-    <row r="143" spans="1:9" ht="44.25">
+      <c r="I142" s="5" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9" ht="48">
       <c r="A143" s="10" t="s">
         <v>39</v>
       </c>
       <c r="B143" s="11" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C143" s="11" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D143" s="11" t="s">
+        <v>300</v>
+      </c>
+      <c r="E143" s="11" t="s">
         <v>301</v>
-      </c>
-      <c r="E143" s="11" t="s">
-        <v>302</v>
       </c>
       <c r="F143" s="11" t="s">
         <v>15</v>
@@ -7095,23 +7732,25 @@
       <c r="H143" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="I143" s="5"/>
-    </row>
-    <row r="144" spans="1:9" ht="44.25">
+      <c r="I143" s="5" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9" ht="48">
       <c r="A144" s="10" t="s">
         <v>39</v>
       </c>
       <c r="B144" s="11" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C144" s="11" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D144" s="11" t="s">
+        <v>300</v>
+      </c>
+      <c r="E144" s="11" t="s">
         <v>301</v>
-      </c>
-      <c r="E144" s="11" t="s">
-        <v>302</v>
       </c>
       <c r="F144" s="11" t="s">
         <v>15</v>
@@ -7122,23 +7761,25 @@
       <c r="H144" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="I144" s="5"/>
-    </row>
-    <row r="145" spans="1:9" ht="58.5">
+      <c r="I144" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9" ht="64">
       <c r="A145" s="10" t="s">
         <v>39</v>
       </c>
       <c r="B145" s="11" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C145" s="15" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D145" s="11" t="s">
+        <v>300</v>
+      </c>
+      <c r="E145" s="11" t="s">
         <v>301</v>
-      </c>
-      <c r="E145" s="11" t="s">
-        <v>302</v>
       </c>
       <c r="F145" s="11" t="s">
         <v>15</v>
@@ -7149,23 +7790,25 @@
       <c r="H145" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="I145" s="5"/>
-    </row>
-    <row r="146" spans="1:9" ht="58.5">
+      <c r="I145" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9" ht="64">
       <c r="A146" s="10" t="s">
         <v>39</v>
       </c>
       <c r="B146" s="11" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C146" s="15" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D146" s="11" t="s">
+        <v>300</v>
+      </c>
+      <c r="E146" s="11" t="s">
         <v>301</v>
-      </c>
-      <c r="E146" s="11" t="s">
-        <v>302</v>
       </c>
       <c r="F146" s="11" t="s">
         <v>15</v>
@@ -7176,23 +7819,25 @@
       <c r="H146" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="I146" s="5"/>
-    </row>
-    <row r="147" spans="1:9" ht="58.5">
+      <c r="I146" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9" ht="64">
       <c r="A147" s="10" t="s">
         <v>39</v>
       </c>
       <c r="B147" s="11" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C147" s="15" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D147" s="11" t="s">
+        <v>300</v>
+      </c>
+      <c r="E147" s="11" t="s">
         <v>301</v>
-      </c>
-      <c r="E147" s="11" t="s">
-        <v>302</v>
       </c>
       <c r="F147" s="11" t="s">
         <v>15</v>
@@ -7203,7 +7848,9 @@
       <c r="H147" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="I147" s="5"/>
+      <c r="I147" s="5" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="148" spans="1:9">
       <c r="A148" s="5"/>
@@ -7250,17 +7897,17 @@
       <c r="I151" s="5"/>
     </row>
     <row r="152" spans="1:9" s="7" customFormat="1">
-      <c r="A152" s="19" t="s">
-        <v>379</v>
-      </c>
-      <c r="B152" s="19"/>
-      <c r="C152" s="19"/>
-      <c r="D152" s="19"/>
-      <c r="E152" s="19"/>
-      <c r="F152" s="19"/>
-      <c r="G152" s="19"/>
-      <c r="H152" s="19"/>
-      <c r="I152" s="19"/>
+      <c r="A152" s="30" t="s">
+        <v>378</v>
+      </c>
+      <c r="B152" s="30"/>
+      <c r="C152" s="30"/>
+      <c r="D152" s="30"/>
+      <c r="E152" s="30"/>
+      <c r="F152" s="30"/>
+      <c r="G152" s="30"/>
+      <c r="H152" s="30"/>
+      <c r="I152" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -7314,11 +7961,11 @@
       <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="17.28515625" customWidth="1"/>
-    <col min="3" max="3" width="26.140625" customWidth="1"/>
-    <col min="5" max="5" width="19.28515625" customWidth="1"/>
+    <col min="1" max="1" width="17.33203125" customWidth="1"/>
+    <col min="3" max="3" width="26.1640625" customWidth="1"/>
+    <col min="5" max="5" width="19.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:5">
@@ -7424,13 +8071,13 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="2.85546875" customWidth="1"/>
-    <col min="2" max="2" width="25.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="90.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="106.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="48.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.83203125" customWidth="1"/>
+    <col min="2" max="2" width="25.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="90.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="106.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="48.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:5">
@@ -7452,42 +8099,42 @@
         <v>30</v>
       </c>
       <c r="C3" s="16" t="s">
+        <v>350</v>
+      </c>
+      <c r="D3" s="17" t="s">
         <v>351</v>
       </c>
-      <c r="D3" s="17" t="s">
+      <c r="E3" s="16" t="s">
         <v>352</v>
       </c>
-      <c r="E3" s="16" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="4" spans="2:5">
+    </row>
+    <row r="4" spans="2:5" ht="32">
       <c r="B4" s="16" t="s">
+        <v>368</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>370</v>
+      </c>
+      <c r="D4" s="17" t="s">
         <v>369</v>
       </c>
-      <c r="C4" s="14" t="s">
-        <v>371</v>
-      </c>
-      <c r="D4" s="17" t="s">
-        <v>370</v>
-      </c>
       <c r="E4" s="16"/>
     </row>
-    <row r="5" spans="2:5" ht="57.75">
+    <row r="5" spans="2:5" ht="64">
       <c r="B5" s="16" t="s">
         <v>39</v>
       </c>
       <c r="C5" s="14" t="s">
+        <v>353</v>
+      </c>
+      <c r="D5" s="17" t="s">
         <v>354</v>
-      </c>
-      <c r="D5" s="17" t="s">
-        <v>355</v>
       </c>
       <c r="E5" s="16"/>
     </row>
     <row r="6" spans="2:5">
       <c r="B6" s="16" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C6" s="16"/>
       <c r="D6" s="16"/>
@@ -7495,30 +8142,30 @@
     </row>
     <row r="7" spans="2:5">
       <c r="B7" s="16" t="s">
+        <v>355</v>
+      </c>
+      <c r="C7" s="16" t="s">
         <v>356</v>
       </c>
-      <c r="C7" s="16" t="s">
+      <c r="D7" s="17" t="s">
         <v>357</v>
       </c>
-      <c r="D7" s="17" t="s">
+      <c r="E7" s="16" t="s">
         <v>358</v>
-      </c>
-      <c r="E7" s="16" t="s">
-        <v>359</v>
       </c>
     </row>
     <row r="8" spans="2:5">
       <c r="B8" s="16" t="s">
+        <v>359</v>
+      </c>
+      <c r="C8" s="16" t="s">
         <v>360</v>
       </c>
-      <c r="C8" s="16" t="s">
+      <c r="D8" s="17" t="s">
         <v>361</v>
       </c>
-      <c r="D8" s="17" t="s">
+      <c r="E8" s="16" t="s">
         <v>362</v>
-      </c>
-      <c r="E8" s="16" t="s">
-        <v>363</v>
       </c>
     </row>
     <row r="9" spans="2:5">
@@ -7526,25 +8173,25 @@
         <v>36</v>
       </c>
       <c r="C9" s="16" t="s">
+        <v>363</v>
+      </c>
+      <c r="D9" s="16" t="s">
         <v>364</v>
-      </c>
-      <c r="D9" s="16" t="s">
-        <v>365</v>
       </c>
       <c r="E9" s="16"/>
     </row>
     <row r="10" spans="2:5">
       <c r="B10" s="16" t="s">
+        <v>366</v>
+      </c>
+      <c r="C10" s="16" t="s">
+        <v>363</v>
+      </c>
+      <c r="D10" s="16" t="s">
+        <v>364</v>
+      </c>
+      <c r="E10" s="16" t="s">
         <v>367</v>
-      </c>
-      <c r="C10" s="16" t="s">
-        <v>364</v>
-      </c>
-      <c r="D10" s="16" t="s">
-        <v>365</v>
-      </c>
-      <c r="E10" s="16" t="s">
-        <v>368</v>
       </c>
     </row>
   </sheetData>

--- a/docs/VerifPlans/Simulation/interrupts/CV32E40SX_CLIC.xlsx
+++ b/docs/VerifPlans/Simulation/interrupts/CV32E40SX_CLIC.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hefegran/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\openhw\core-v-verif_40s\cv32e40s\docs\VerifPlans\Simulation\interrupts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{412146A6-BA24-9F4B-A013-D3E1CD3E4776}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F617ACDA-E1B0-40A2-B6F9-9479BD82289D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-51200" yWindow="-13020" windowWidth="51200" windowHeight="28800" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15" yWindow="15" windowWidth="28770" windowHeight="16170" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="High-level Feature" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,6 @@
     <sheet name="References" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -2890,15 +2889,15 @@
     <t>TODO: Directed clic test should add case to test this</t>
   </si>
   <si>
-    <t>Missing covergroup, vc should use all interrupt levels</t>
-  </si>
-  <si>
     <t xml:space="preserve">
 Should apply to both wfi and wfe, the following tests use back to back wfe and wfi-instructions + randomly toggled interrupts/wfe-pin. 
 wfe_test :: wfe_wakeup_umode
 wfe_test :: wfe_wakeup
 wfe_test :: wfi_mstatus_tw_umode_illegal
 TODO: covergroups</t>
+  </si>
+  <si>
+    <t>clic_cg.cp_lvl</t>
   </si>
 </sst>
 </file>
@@ -3069,7 +3068,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -3147,6 +3146,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -3570,26 +3570,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I152"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A84" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="G46" sqref="G46"/>
+      <selection pane="bottomLeft" activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="17" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="17" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="21.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="20.33203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="31.1640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="51.33203125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="41.33203125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="21.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="18.5" style="1" customWidth="1"/>
-    <col min="8" max="8" width="22.83203125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="79.1640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="20.28515625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="31.140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="51.28515625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="41.28515625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="21.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="18.42578125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="22.85546875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="79.140625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="32">
+    <row r="1" spans="1:9" ht="30">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3618,7 +3618,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="64">
+    <row r="2" spans="1:9" ht="57">
       <c r="A2" s="10" t="s">
         <v>30</v>
       </c>
@@ -3647,7 +3647,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="64">
+    <row r="3" spans="1:9" ht="57">
       <c r="A3" s="10" t="s">
         <v>30</v>
       </c>
@@ -3676,7 +3676,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="64">
+    <row r="4" spans="1:9" ht="28.5">
       <c r="A4" s="10" t="s">
         <v>36</v>
       </c>
@@ -3705,7 +3705,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="64">
+    <row r="5" spans="1:9" ht="43.5">
       <c r="A5" s="10" t="s">
         <v>39</v>
       </c>
@@ -3734,7 +3734,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="64">
+    <row r="6" spans="1:9" ht="42.75">
       <c r="A6" s="10" t="s">
         <v>36</v>
       </c>
@@ -3763,7 +3763,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="64">
+    <row r="7" spans="1:9" ht="42.75">
       <c r="A7" s="10" t="s">
         <v>36</v>
       </c>
@@ -3792,7 +3792,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="64">
+    <row r="8" spans="1:9" ht="28.5">
       <c r="A8" s="10" t="s">
         <v>36</v>
       </c>
@@ -3821,7 +3821,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="32">
+    <row r="9" spans="1:9" ht="28.5">
       <c r="A9" s="10" t="s">
         <v>36</v>
       </c>
@@ -3846,11 +3846,11 @@
       <c r="H9" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="I9" s="20" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="64">
+      <c r="I9" s="31" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="28.5">
       <c r="A10" s="10" t="s">
         <v>36</v>
       </c>
@@ -3879,7 +3879,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="112">
+    <row r="11" spans="1:9" ht="72">
       <c r="A11" s="10" t="s">
         <v>57</v>
       </c>
@@ -3908,7 +3908,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="64">
+    <row r="12" spans="1:9" ht="42.75">
       <c r="A12" s="10" t="s">
         <v>36</v>
       </c>
@@ -3937,7 +3937,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="64">
+    <row r="13" spans="1:9" ht="28.5">
       <c r="A13" s="10" t="s">
         <v>57</v>
       </c>
@@ -3966,7 +3966,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="64">
+    <row r="14" spans="1:9" ht="29.25">
       <c r="A14" s="10" t="s">
         <v>57</v>
       </c>
@@ -3995,7 +3995,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="112">
+    <row r="15" spans="1:9" ht="86.25">
       <c r="A15" s="10" t="s">
         <v>57</v>
       </c>
@@ -4024,7 +4024,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="64">
+    <row r="16" spans="1:9" ht="28.5">
       <c r="A16" s="12" t="s">
         <v>57</v>
       </c>
@@ -4053,7 +4053,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="64">
+    <row r="17" spans="1:9" ht="42.75">
       <c r="A17" s="24" t="s">
         <v>57</v>
       </c>
@@ -4082,7 +4082,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="80">
+    <row r="18" spans="1:9" ht="72">
       <c r="A18" s="10" t="s">
         <v>57</v>
       </c>
@@ -4111,7 +4111,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="64">
+    <row r="19" spans="1:9" ht="42.75">
       <c r="A19" s="10" t="s">
         <v>84</v>
       </c>
@@ -4140,7 +4140,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="64">
+    <row r="20" spans="1:9" ht="57">
       <c r="A20" s="24" t="s">
         <v>57</v>
       </c>
@@ -4169,7 +4169,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="32">
+    <row r="21" spans="1:9" ht="29.25">
       <c r="A21" s="10" t="s">
         <v>30</v>
       </c>
@@ -4198,7 +4198,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="32">
+    <row r="22" spans="1:9" ht="29.25">
       <c r="A22" s="10" t="s">
         <v>30</v>
       </c>
@@ -4227,7 +4227,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="32">
+    <row r="23" spans="1:9" ht="29.25">
       <c r="A23" s="10" t="s">
         <v>30</v>
       </c>
@@ -4256,7 +4256,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="32">
+    <row r="24" spans="1:9" ht="29.25">
       <c r="A24" s="10" t="s">
         <v>30</v>
       </c>
@@ -4285,7 +4285,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="64">
+    <row r="25" spans="1:9" ht="28.5">
       <c r="A25" s="10" t="s">
         <v>30</v>
       </c>
@@ -4314,7 +4314,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="32">
+    <row r="26" spans="1:9" ht="28.5">
       <c r="A26" s="10" t="s">
         <v>30</v>
       </c>
@@ -4343,7 +4343,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="64">
+    <row r="27" spans="1:9" ht="28.5">
       <c r="A27" s="10" t="s">
         <v>30</v>
       </c>
@@ -4372,7 +4372,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="32">
+    <row r="28" spans="1:9" ht="28.5">
       <c r="A28" s="10" t="s">
         <v>30</v>
       </c>
@@ -4401,7 +4401,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="64">
+    <row r="29" spans="1:9" ht="28.5">
       <c r="A29" s="10" t="s">
         <v>36</v>
       </c>
@@ -4430,7 +4430,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="64">
+    <row r="30" spans="1:9" ht="28.5">
       <c r="A30" s="10" t="s">
         <v>36</v>
       </c>
@@ -4459,7 +4459,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="96">
+    <row r="31" spans="1:9" ht="57">
       <c r="A31" s="10" t="s">
         <v>57</v>
       </c>
@@ -4488,7 +4488,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="304">
+    <row r="32" spans="1:9" ht="213.75">
       <c r="A32" s="10" t="s">
         <v>30</v>
       </c>
@@ -4517,7 +4517,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="33" spans="1:9" ht="64">
+    <row r="33" spans="1:9" ht="28.5">
       <c r="A33" s="10" t="s">
         <v>36</v>
       </c>
@@ -4546,7 +4546,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="34" spans="1:9" ht="48">
+    <row r="34" spans="1:9" ht="28.5">
       <c r="A34" s="10" t="s">
         <v>30</v>
       </c>
@@ -4575,7 +4575,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="35" spans="1:9" ht="64">
+    <row r="35" spans="1:9" ht="42.75">
       <c r="A35" s="10" t="s">
         <v>30</v>
       </c>
@@ -4604,7 +4604,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="36" spans="1:9" ht="64">
+    <row r="36" spans="1:9" ht="28.5">
       <c r="A36" s="10" t="s">
         <v>39</v>
       </c>
@@ -4633,7 +4633,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="37" spans="1:9" ht="64">
+    <row r="37" spans="1:9" ht="28.5">
       <c r="A37" s="10" t="s">
         <v>30</v>
       </c>
@@ -4662,7 +4662,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="38" spans="1:9" ht="64">
+    <row r="38" spans="1:9" ht="28.5">
       <c r="A38" s="10" t="s">
         <v>30</v>
       </c>
@@ -4691,7 +4691,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="39" spans="1:9" ht="64">
+    <row r="39" spans="1:9" ht="42.75">
       <c r="A39" s="10" t="s">
         <v>30</v>
       </c>
@@ -4720,7 +4720,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="40" spans="1:9" ht="64">
+    <row r="40" spans="1:9" ht="42.75">
       <c r="A40" s="10" t="s">
         <v>30</v>
       </c>
@@ -4749,7 +4749,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="41" spans="1:9" ht="208">
+    <row r="41" spans="1:9" ht="171">
       <c r="A41" s="10" t="s">
         <v>30</v>
       </c>
@@ -4778,7 +4778,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="42" spans="1:9" ht="288">
+    <row r="42" spans="1:9" ht="199.5">
       <c r="A42" s="10" t="s">
         <v>30</v>
       </c>
@@ -4807,7 +4807,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="43" spans="1:9" ht="240">
+    <row r="43" spans="1:9" ht="171">
       <c r="A43" s="10" t="s">
         <v>30</v>
       </c>
@@ -4836,7 +4836,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="44" spans="1:9" ht="288">
+    <row r="44" spans="1:9" ht="213.75">
       <c r="A44" s="10" t="s">
         <v>30</v>
       </c>
@@ -4865,7 +4865,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="45" spans="1:9" ht="256">
+    <row r="45" spans="1:9" ht="185.25">
       <c r="A45" s="10" t="s">
         <v>30</v>
       </c>
@@ -4894,7 +4894,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="46" spans="1:9" ht="192">
+    <row r="46" spans="1:9" ht="142.5">
       <c r="A46" s="10" t="s">
         <v>30</v>
       </c>
@@ -4923,7 +4923,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="47" spans="1:9" ht="128">
+    <row r="47" spans="1:9" ht="99.75">
       <c r="A47" s="10" t="s">
         <v>366</v>
       </c>
@@ -4981,7 +4981,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="49" spans="1:9" ht="48">
+    <row r="49" spans="1:9" ht="43.5">
       <c r="A49" s="10" t="s">
         <v>30</v>
       </c>
@@ -5010,7 +5010,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="50" spans="1:9" ht="68">
+    <row r="50" spans="1:9" ht="45">
       <c r="A50" s="26" t="s">
         <v>30</v>
       </c>
@@ -5039,7 +5039,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="51" spans="1:9" ht="96">
+    <row r="51" spans="1:9" ht="71.25">
       <c r="A51" s="10" t="s">
         <v>30</v>
       </c>
@@ -5068,7 +5068,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="52" spans="1:9" ht="64">
+    <row r="52" spans="1:9" ht="42.75">
       <c r="A52" s="24" t="s">
         <v>57</v>
       </c>
@@ -5097,7 +5097,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="53" spans="1:9" ht="64">
+    <row r="53" spans="1:9" ht="57">
       <c r="A53" s="10" t="s">
         <v>30</v>
       </c>
@@ -5126,7 +5126,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="54" spans="1:9" ht="64">
+    <row r="54" spans="1:9" ht="28.5">
       <c r="A54" s="10" t="s">
         <v>30</v>
       </c>
@@ -5155,7 +5155,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="55" spans="1:9" ht="64">
+    <row r="55" spans="1:9" ht="42.75">
       <c r="A55" s="10" t="s">
         <v>36</v>
       </c>
@@ -5184,7 +5184,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="56" spans="1:9" ht="96">
+    <row r="56" spans="1:9" ht="71.25">
       <c r="A56" s="10" t="s">
         <v>30</v>
       </c>
@@ -5213,7 +5213,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="57" spans="1:9" ht="320">
+    <row r="57" spans="1:9" ht="228">
       <c r="A57" s="10" t="s">
         <v>30</v>
       </c>
@@ -5242,7 +5242,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="58" spans="1:9" ht="176">
+    <row r="58" spans="1:9" ht="128.25">
       <c r="A58" s="10" t="s">
         <v>30</v>
       </c>
@@ -5271,7 +5271,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="59" spans="1:9" ht="335">
+    <row r="59" spans="1:9" ht="242.25">
       <c r="A59" s="10" t="s">
         <v>30</v>
       </c>
@@ -5300,7 +5300,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="60" spans="1:9" ht="320">
+    <row r="60" spans="1:9" ht="242.25">
       <c r="A60" s="10" t="s">
         <v>30</v>
       </c>
@@ -5329,7 +5329,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="61" spans="1:9" ht="335">
+    <row r="61" spans="1:9" ht="270.75">
       <c r="A61" s="10" t="s">
         <v>30</v>
       </c>
@@ -5358,7 +5358,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="62" spans="1:9" ht="320">
+    <row r="62" spans="1:9" ht="256.5">
       <c r="A62" s="10" t="s">
         <v>30</v>
       </c>
@@ -5387,7 +5387,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="63" spans="1:9" ht="128">
+    <row r="63" spans="1:9" ht="114">
       <c r="A63" s="10" t="s">
         <v>30</v>
       </c>
@@ -5416,7 +5416,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="64" spans="1:9" ht="80">
+    <row r="64" spans="1:9" ht="57.75">
       <c r="A64" s="10" t="s">
         <v>30</v>
       </c>
@@ -5445,7 +5445,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="65" spans="1:9" ht="80">
+    <row r="65" spans="1:9" ht="57.75">
       <c r="A65" s="10" t="s">
         <v>30</v>
       </c>
@@ -5474,7 +5474,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="66" spans="1:9" ht="144">
+    <row r="66" spans="1:9" ht="129">
       <c r="A66" s="10" t="s">
         <v>30</v>
       </c>
@@ -5503,7 +5503,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="67" spans="1:9" ht="176">
+    <row r="67" spans="1:9" ht="128.25">
       <c r="A67" s="10" t="s">
         <v>30</v>
       </c>
@@ -5532,7 +5532,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="68" spans="1:9" ht="128">
+    <row r="68" spans="1:9" ht="114">
       <c r="A68" s="10" t="s">
         <v>30</v>
       </c>
@@ -5561,7 +5561,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="69" spans="1:9" ht="64">
+    <row r="69" spans="1:9" ht="42.75">
       <c r="A69" s="10" t="s">
         <v>30</v>
       </c>
@@ -5590,7 +5590,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="70" spans="1:9" ht="96">
+    <row r="70" spans="1:9" ht="71.25">
       <c r="A70" s="10" t="s">
         <v>36</v>
       </c>
@@ -5619,7 +5619,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="71" spans="1:9" ht="144">
+    <row r="71" spans="1:9" ht="128.25">
       <c r="A71" s="10" t="s">
         <v>30</v>
       </c>
@@ -5648,7 +5648,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="72" spans="1:9" ht="144">
+    <row r="72" spans="1:9" ht="128.25">
       <c r="A72" s="10" t="s">
         <v>30</v>
       </c>
@@ -5677,7 +5677,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="73" spans="1:9" ht="80">
+    <row r="73" spans="1:9" ht="57">
       <c r="A73" s="10" t="s">
         <v>368</v>
       </c>
@@ -5706,7 +5706,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="74" spans="1:9" ht="112">
+    <row r="74" spans="1:9" ht="71.25">
       <c r="A74" s="24" t="s">
         <v>368</v>
       </c>
@@ -5735,7 +5735,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="75" spans="1:9" ht="160">
+    <row r="75" spans="1:9" ht="114">
       <c r="A75" s="10" t="s">
         <v>30</v>
       </c>
@@ -5764,7 +5764,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="76" spans="1:9" ht="160">
+    <row r="76" spans="1:9" ht="128.25">
       <c r="A76" s="10" t="s">
         <v>30</v>
       </c>
@@ -5793,7 +5793,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="77" spans="1:9" ht="144">
+    <row r="77" spans="1:9" ht="114">
       <c r="A77" s="10" t="s">
         <v>30</v>
       </c>
@@ -5822,7 +5822,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="78" spans="1:9" ht="64">
+    <row r="78" spans="1:9" ht="28.5">
       <c r="A78" s="10" t="s">
         <v>30</v>
       </c>
@@ -5851,7 +5851,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="79" spans="1:9" ht="64">
+    <row r="79" spans="1:9" ht="29.25">
       <c r="A79" s="10" t="s">
         <v>36</v>
       </c>
@@ -5880,7 +5880,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="80" spans="1:9" ht="64">
+    <row r="80" spans="1:9" ht="28.5">
       <c r="A80" s="10" t="s">
         <v>36</v>
       </c>
@@ -5909,7 +5909,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="81" spans="1:9" ht="64">
+    <row r="81" spans="1:9" ht="29.25">
       <c r="A81" s="10" t="s">
         <v>36</v>
       </c>
@@ -5938,7 +5938,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="82" spans="1:9" ht="64">
+    <row r="82" spans="1:9" ht="42.75">
       <c r="A82" s="10" t="s">
         <v>30</v>
       </c>
@@ -5967,7 +5967,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="83" spans="1:9" ht="80">
+    <row r="83" spans="1:9" ht="57.75">
       <c r="A83" s="10" t="s">
         <v>30</v>
       </c>
@@ -5996,7 +5996,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="84" spans="1:9" ht="96">
+    <row r="84" spans="1:9" ht="71.25">
       <c r="A84" s="10" t="s">
         <v>36</v>
       </c>
@@ -6025,7 +6025,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="85" spans="1:9" ht="144">
+    <row r="85" spans="1:9" ht="114.75">
       <c r="A85" s="10" t="s">
         <v>36</v>
       </c>
@@ -6051,10 +6051,10 @@
         <v>14</v>
       </c>
       <c r="I85" s="23" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9" ht="256">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" ht="199.5">
       <c r="A86" s="10" t="s">
         <v>36</v>
       </c>
@@ -6083,7 +6083,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="87" spans="1:9" ht="288">
+    <row r="87" spans="1:9" ht="199.5">
       <c r="A87" s="10" t="s">
         <v>36</v>
       </c>
@@ -6112,7 +6112,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="88" spans="1:9" ht="256">
+    <row r="88" spans="1:9" ht="171">
       <c r="A88" s="10" t="s">
         <v>36</v>
       </c>
@@ -6141,7 +6141,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="89" spans="1:9" ht="176">
+    <row r="89" spans="1:9" ht="114">
       <c r="A89" s="10" t="s">
         <v>36</v>
       </c>
@@ -6170,7 +6170,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="90" spans="1:9" ht="208">
+    <row r="90" spans="1:9" ht="142.5">
       <c r="A90" s="10" t="s">
         <v>36</v>
       </c>
@@ -6199,7 +6199,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="91" spans="1:9" ht="224">
+    <row r="91" spans="1:9" ht="156.75">
       <c r="A91" s="10" t="s">
         <v>36</v>
       </c>
@@ -6228,7 +6228,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="92" spans="1:9" ht="192">
+    <row r="92" spans="1:9" ht="128.25">
       <c r="A92" s="10" t="s">
         <v>36</v>
       </c>
@@ -6257,7 +6257,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="93" spans="1:9" ht="288">
+    <row r="93" spans="1:9" ht="199.5">
       <c r="A93" s="10" t="s">
         <v>36</v>
       </c>
@@ -6286,7 +6286,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="94" spans="1:9" ht="288">
+    <row r="94" spans="1:9" ht="199.5">
       <c r="A94" s="10" t="s">
         <v>36</v>
       </c>
@@ -6315,7 +6315,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="95" spans="1:9" ht="208">
+    <row r="95" spans="1:9" ht="142.5">
       <c r="A95" s="10" t="s">
         <v>36</v>
       </c>
@@ -6344,7 +6344,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="96" spans="1:9" ht="192">
+    <row r="96" spans="1:9" ht="128.25">
       <c r="A96" s="10" t="s">
         <v>36</v>
       </c>
@@ -6373,7 +6373,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="97" spans="1:9" ht="208">
+    <row r="97" spans="1:9" ht="142.5">
       <c r="A97" s="10" t="s">
         <v>36</v>
       </c>
@@ -6402,7 +6402,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="98" spans="1:9" ht="256">
+    <row r="98" spans="1:9" ht="185.25">
       <c r="A98" s="10" t="s">
         <v>36</v>
       </c>
@@ -6431,7 +6431,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="99" spans="1:9" ht="48">
+    <row r="99" spans="1:9" ht="29.25">
       <c r="A99" s="10" t="s">
         <v>39</v>
       </c>
@@ -6460,7 +6460,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="100" spans="1:9" ht="48">
+    <row r="100" spans="1:9" ht="29.25">
       <c r="A100" s="10" t="s">
         <v>39</v>
       </c>
@@ -6489,7 +6489,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="101" spans="1:9" ht="48">
+    <row r="101" spans="1:9" ht="29.25">
       <c r="A101" s="10" t="s">
         <v>39</v>
       </c>
@@ -6518,7 +6518,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="102" spans="1:9" ht="48">
+    <row r="102" spans="1:9" ht="29.25">
       <c r="A102" s="10" t="s">
         <v>39</v>
       </c>
@@ -6547,7 +6547,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="103" spans="1:9" ht="48">
+    <row r="103" spans="1:9" ht="29.25">
       <c r="A103" s="10" t="s">
         <v>39</v>
       </c>
@@ -6576,7 +6576,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="104" spans="1:9" ht="48">
+    <row r="104" spans="1:9" ht="29.25">
       <c r="A104" s="10" t="s">
         <v>39</v>
       </c>
@@ -6605,7 +6605,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="105" spans="1:9" ht="48">
+    <row r="105" spans="1:9" ht="29.25">
       <c r="A105" s="10" t="s">
         <v>39</v>
       </c>
@@ -6634,7 +6634,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="106" spans="1:9" ht="80">
+    <row r="106" spans="1:9" ht="57.75">
       <c r="A106" s="10" t="s">
         <v>39</v>
       </c>
@@ -6663,7 +6663,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="107" spans="1:9" ht="48">
+    <row r="107" spans="1:9" ht="29.25">
       <c r="A107" s="10" t="s">
         <v>39</v>
       </c>
@@ -6692,7 +6692,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="108" spans="1:9" ht="48">
+    <row r="108" spans="1:9" ht="29.25">
       <c r="A108" s="10" t="s">
         <v>39</v>
       </c>
@@ -6721,7 +6721,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="109" spans="1:9" ht="48">
+    <row r="109" spans="1:9" ht="29.25">
       <c r="A109" s="10" t="s">
         <v>39</v>
       </c>
@@ -6750,7 +6750,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="110" spans="1:9" ht="48">
+    <row r="110" spans="1:9" ht="29.25">
       <c r="A110" s="10" t="s">
         <v>39</v>
       </c>
@@ -6779,7 +6779,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="111" spans="1:9" ht="48">
+    <row r="111" spans="1:9" ht="29.25">
       <c r="A111" s="10" t="s">
         <v>39</v>
       </c>
@@ -6808,7 +6808,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="112" spans="1:9" ht="48">
+    <row r="112" spans="1:9" ht="29.25">
       <c r="A112" s="10" t="s">
         <v>39</v>
       </c>
@@ -6837,7 +6837,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="113" spans="1:9" ht="48">
+    <row r="113" spans="1:9" ht="29.25">
       <c r="A113" s="10" t="s">
         <v>39</v>
       </c>
@@ -6866,7 +6866,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="114" spans="1:9" ht="48">
+    <row r="114" spans="1:9" ht="29.25">
       <c r="A114" s="10" t="s">
         <v>39</v>
       </c>
@@ -6895,7 +6895,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="115" spans="1:9" ht="48">
+    <row r="115" spans="1:9" ht="29.25">
       <c r="A115" s="10" t="s">
         <v>39</v>
       </c>
@@ -6924,7 +6924,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="116" spans="1:9" ht="48">
+    <row r="116" spans="1:9" ht="29.25">
       <c r="A116" s="10" t="s">
         <v>39</v>
       </c>
@@ -6953,7 +6953,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="117" spans="1:9" ht="48">
+    <row r="117" spans="1:9" ht="29.25">
       <c r="A117" s="10" t="s">
         <v>39</v>
       </c>
@@ -6982,7 +6982,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="118" spans="1:9" ht="48">
+    <row r="118" spans="1:9" ht="29.25">
       <c r="A118" s="10" t="s">
         <v>39</v>
       </c>
@@ -7011,7 +7011,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="119" spans="1:9" ht="80">
+    <row r="119" spans="1:9" ht="57.75">
       <c r="A119" s="10" t="s">
         <v>39</v>
       </c>
@@ -7040,7 +7040,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="120" spans="1:9" ht="48">
+    <row r="120" spans="1:9" ht="29.25">
       <c r="A120" s="10" t="s">
         <v>39</v>
       </c>
@@ -7069,7 +7069,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="121" spans="1:9" ht="80">
+    <row r="121" spans="1:9" ht="57.75">
       <c r="A121" s="10" t="s">
         <v>39</v>
       </c>
@@ -7098,7 +7098,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="122" spans="1:9" ht="48">
+    <row r="122" spans="1:9" ht="29.25">
       <c r="A122" s="10" t="s">
         <v>39</v>
       </c>
@@ -7127,7 +7127,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="123" spans="1:9" ht="48">
+    <row r="123" spans="1:9" ht="29.25">
       <c r="A123" s="10" t="s">
         <v>39</v>
       </c>
@@ -7156,7 +7156,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="124" spans="1:9" ht="48">
+    <row r="124" spans="1:9" ht="29.25">
       <c r="A124" s="10" t="s">
         <v>39</v>
       </c>
@@ -7185,7 +7185,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="125" spans="1:9" ht="48">
+    <row r="125" spans="1:9" ht="29.25">
       <c r="A125" s="10" t="s">
         <v>39</v>
       </c>
@@ -7214,7 +7214,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="126" spans="1:9" ht="48">
+    <row r="126" spans="1:9" ht="29.25">
       <c r="A126" s="10" t="s">
         <v>39</v>
       </c>
@@ -7243,7 +7243,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="127" spans="1:9" ht="48">
+    <row r="127" spans="1:9" ht="29.25">
       <c r="A127" s="10" t="s">
         <v>39</v>
       </c>
@@ -7272,7 +7272,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="128" spans="1:9" ht="48">
+    <row r="128" spans="1:9" ht="29.25">
       <c r="A128" s="10" t="s">
         <v>39</v>
       </c>
@@ -7301,7 +7301,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="129" spans="1:9" ht="48">
+    <row r="129" spans="1:9" ht="29.25">
       <c r="A129" s="10" t="s">
         <v>39</v>
       </c>
@@ -7330,7 +7330,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="130" spans="1:9" ht="48">
+    <row r="130" spans="1:9" ht="29.25">
       <c r="A130" s="10" t="s">
         <v>39</v>
       </c>
@@ -7359,7 +7359,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="131" spans="1:9" ht="48">
+    <row r="131" spans="1:9" ht="29.25">
       <c r="A131" s="10" t="s">
         <v>39</v>
       </c>
@@ -7388,7 +7388,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="132" spans="1:9" ht="48">
+    <row r="132" spans="1:9" ht="29.25">
       <c r="A132" s="10" t="s">
         <v>39</v>
       </c>
@@ -7417,7 +7417,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="133" spans="1:9" ht="48">
+    <row r="133" spans="1:9" ht="29.25">
       <c r="A133" s="10" t="s">
         <v>39</v>
       </c>
@@ -7446,7 +7446,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="134" spans="1:9" ht="80">
+    <row r="134" spans="1:9" ht="57.75">
       <c r="A134" s="10" t="s">
         <v>39</v>
       </c>
@@ -7475,7 +7475,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="135" spans="1:9" ht="48">
+    <row r="135" spans="1:9" ht="29.25">
       <c r="A135" s="10" t="s">
         <v>39</v>
       </c>
@@ -7504,7 +7504,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="136" spans="1:9" ht="80">
+    <row r="136" spans="1:9" ht="57.75">
       <c r="A136" s="10" t="s">
         <v>39</v>
       </c>
@@ -7533,7 +7533,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="137" spans="1:9" ht="48">
+    <row r="137" spans="1:9" ht="43.5">
       <c r="A137" s="10" t="s">
         <v>39</v>
       </c>
@@ -7562,7 +7562,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="138" spans="1:9" ht="48">
+    <row r="138" spans="1:9" ht="43.5">
       <c r="A138" s="10" t="s">
         <v>39</v>
       </c>
@@ -7591,7 +7591,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="139" spans="1:9" ht="48">
+    <row r="139" spans="1:9" ht="43.5">
       <c r="A139" s="10" t="s">
         <v>39</v>
       </c>
@@ -7620,7 +7620,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="140" spans="1:9" ht="48">
+    <row r="140" spans="1:9" ht="43.5">
       <c r="A140" s="10" t="s">
         <v>39</v>
       </c>
@@ -7649,7 +7649,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="141" spans="1:9" ht="32">
+    <row r="141" spans="1:9" ht="29.25">
       <c r="A141" s="10" t="s">
         <v>39</v>
       </c>
@@ -7678,7 +7678,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="142" spans="1:9" ht="32">
+    <row r="142" spans="1:9" ht="28.5">
       <c r="A142" s="10" t="s">
         <v>39</v>
       </c>
@@ -7707,7 +7707,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="143" spans="1:9" ht="48">
+    <row r="143" spans="1:9" ht="44.25">
       <c r="A143" s="10" t="s">
         <v>39</v>
       </c>
@@ -7736,7 +7736,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="144" spans="1:9" ht="48">
+    <row r="144" spans="1:9" ht="44.25">
       <c r="A144" s="10" t="s">
         <v>39</v>
       </c>
@@ -7765,7 +7765,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="145" spans="1:9" ht="64">
+    <row r="145" spans="1:9" ht="58.5">
       <c r="A145" s="10" t="s">
         <v>39</v>
       </c>
@@ -7794,7 +7794,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="146" spans="1:9" ht="64">
+    <row r="146" spans="1:9" ht="58.5">
       <c r="A146" s="10" t="s">
         <v>39</v>
       </c>
@@ -7823,7 +7823,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="147" spans="1:9" ht="64">
+    <row r="147" spans="1:9" ht="58.5">
       <c r="A147" s="10" t="s">
         <v>39</v>
       </c>
@@ -7961,11 +7961,11 @@
       <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="17.33203125" customWidth="1"/>
-    <col min="3" max="3" width="26.1640625" customWidth="1"/>
-    <col min="5" max="5" width="19.33203125" customWidth="1"/>
+    <col min="1" max="1" width="17.28515625" customWidth="1"/>
+    <col min="3" max="3" width="26.140625" customWidth="1"/>
+    <col min="5" max="5" width="19.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:5">
@@ -8071,13 +8071,13 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="2.83203125" customWidth="1"/>
-    <col min="2" max="2" width="25.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="90.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="106.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="48.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.85546875" customWidth="1"/>
+    <col min="2" max="2" width="25.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="90.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="106.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="48.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:5">
@@ -8108,7 +8108,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="4" spans="2:5" ht="32">
+    <row r="4" spans="2:5">
       <c r="B4" s="16" t="s">
         <v>368</v>
       </c>
@@ -8120,7 +8120,7 @@
       </c>
       <c r="E4" s="16"/>
     </row>
-    <row r="5" spans="2:5" ht="64">
+    <row r="5" spans="2:5" ht="57.75">
       <c r="B5" s="16" t="s">
         <v>39</v>
       </c>

--- a/docs/VerifPlans/Simulation/interrupts/CV32E40SX_CLIC.xlsx
+++ b/docs/VerifPlans/Simulation/interrupts/CV32E40SX_CLIC.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\openhw\core-v-verif_40s\cv32e40s\docs\VerifPlans\Simulation\interrupts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F617ACDA-E1B0-40A2-B6F9-9479BD82289D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0700F57D-6730-46B3-A55F-7643D604952C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15" yWindow="15" windowWidth="28770" windowHeight="16170" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-38400" yWindow="0" windowWidth="38400" windowHeight="21000" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="High-level Feature" sheetId="1" r:id="rId1"/>
@@ -2886,9 +2886,6 @@
     <t>TODO: Expect this to be covered by assertions taking correct priority into account</t>
   </si>
   <si>
-    <t>TODO: Directed clic test should add case to test this</t>
-  </si>
-  <si>
     <t xml:space="preserve">
 Should apply to both wfi and wfe, the following tests use back to back wfe and wfi-instructions + randomly toggled interrupts/wfe-pin. 
 wfe_test :: wfe_wakeup_umode
@@ -2898,6 +2895,9 @@
   </si>
   <si>
     <t>clic_cg.cp_lvl</t>
+  </si>
+  <si>
+    <t>clic::invalid_mtvt_ptr_exec_mret</t>
   </si>
 </sst>
 </file>
@@ -3143,10 +3143,10 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -3570,10 +3570,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I152"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="I7" sqref="I7"/>
+      <selection pane="bottomLeft" activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17" defaultRowHeight="15"/>
@@ -3846,8 +3846,8 @@
       <c r="H9" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="I9" s="31" t="s">
-        <v>458</v>
+      <c r="I9" s="30" t="s">
+        <v>457</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="28.5">
@@ -4513,8 +4513,8 @@
       <c r="H32" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="I32" s="20" t="s">
-        <v>456</v>
+      <c r="I32" s="21" t="s">
+        <v>458</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="28.5">
@@ -6051,7 +6051,7 @@
         <v>14</v>
       </c>
       <c r="I85" s="23" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="86" spans="1:9" ht="199.5">
@@ -7897,17 +7897,17 @@
       <c r="I151" s="5"/>
     </row>
     <row r="152" spans="1:9" s="7" customFormat="1">
-      <c r="A152" s="30" t="s">
+      <c r="A152" s="31" t="s">
         <v>378</v>
       </c>
-      <c r="B152" s="30"/>
-      <c r="C152" s="30"/>
-      <c r="D152" s="30"/>
-      <c r="E152" s="30"/>
-      <c r="F152" s="30"/>
-      <c r="G152" s="30"/>
-      <c r="H152" s="30"/>
-      <c r="I152" s="30"/>
+      <c r="B152" s="31"/>
+      <c r="C152" s="31"/>
+      <c r="D152" s="31"/>
+      <c r="E152" s="31"/>
+      <c r="F152" s="31"/>
+      <c r="G152" s="31"/>
+      <c r="H152" s="31"/>
+      <c r="I152" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/docs/VerifPlans/Simulation/interrupts/CV32E40SX_CLIC.xlsx
+++ b/docs/VerifPlans/Simulation/interrupts/CV32E40SX_CLIC.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\openhw\core-v-verif_40s\cv32e40s\docs\VerifPlans\Simulation\interrupts\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\krdosvik\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0700F57D-6730-46B3-A55F-7643D604952C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23298965-2AF0-4E21-8D02-CE9A7987F05F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38400" yWindow="0" windowWidth="38400" windowHeight="21000" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="High-level Feature" sheetId="1" r:id="rId1"/>
@@ -2897,7 +2897,7 @@
     <t>clic_cg.cp_lvl</t>
   </si>
   <si>
-    <t>clic::invalid_mtvt_ptr_exec_mret</t>
+    <t>clic::invalid_mtvt_ptr_exec_mret, minhv_pma_block.c</t>
   </si>
 </sst>
 </file>
@@ -3571,9 +3571,9 @@
   <dimension ref="A1:I152"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="E25" sqref="E25"/>
+      <selection pane="bottomLeft" activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17" defaultRowHeight="15"/>
